--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>Total=</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>GT Master</t>
+  </si>
+  <si>
+    <t>Narzo50i</t>
   </si>
 </sst>
 </file>
@@ -1033,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1075,7 +1078,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44571</v>
+        <v>44573</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
@@ -1133,7 +1136,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2">
-        <f t="shared" ref="E7:E25" si="0">D7*C7</f>
+        <f t="shared" ref="E7:E27" si="0">D7*C7</f>
         <v>0</v>
       </c>
     </row>
@@ -1179,7 +1182,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2">
-        <f t="shared" ref="E10:E13" si="2">D10*C10</f>
+        <f t="shared" ref="E10:E15" si="2">D10*C10</f>
         <v>0</v>
       </c>
     </row>
@@ -1189,7 +1192,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="3">
-        <v>10200</v>
+        <v>10250</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2">
@@ -1199,18 +1202,20 @@
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="3">
-        <v>10510</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>10250</v>
+      </c>
+      <c r="D12" s="3">
+        <v>15</v>
+      </c>
       <c r="E12" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="E12:E13" si="3">D12*C12</f>
+        <v>153750</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1221,25 +1226,27 @@
       <c r="C13" s="3">
         <v>10510</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>15</v>
+      </c>
       <c r="E13" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>157650</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="3">
-        <v>11380</v>
+        <v>10510</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2">
-        <f t="shared" ref="E14:E15" si="3">D14*C14</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1249,27 +1256,27 @@
         <v>6</v>
       </c>
       <c r="C15" s="3">
-        <v>11380</v>
+        <v>10510</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C16" s="3">
-        <v>13020</v>
+        <v>11380</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2">
-        <f>D16*C16</f>
+        <f t="shared" ref="E16:E17" si="4">D16*C16</f>
         <v>0</v>
       </c>
     </row>
@@ -1279,27 +1286,27 @@
         <v>6</v>
       </c>
       <c r="C17" s="3">
-        <v>13020</v>
+        <v>11380</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2">
-        <f>D17*C17</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="3">
-        <v>14300</v>
+        <v>13020</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="2">
-        <f t="shared" ref="E18:E21" si="4">D18*C18</f>
+        <f>D18*C18</f>
         <v>0</v>
       </c>
     </row>
@@ -1309,165 +1316,194 @@
         <v>6</v>
       </c>
       <c r="C19" s="3">
-        <v>14300</v>
+        <v>13020</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2">
-        <f t="shared" si="4"/>
+        <f>D19*C19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3">
-        <v>20640</v>
+        <v>14300</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E20:E23" si="5">D20*C20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="B21" s="8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C21" s="3">
-        <v>20640</v>
+        <v>14300</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="3">
-        <v>36420</v>
+        <v>20640</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="8" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C23" s="3">
-        <v>36420</v>
+        <v>20640</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3">
-        <v>31210</v>
-      </c>
-      <c r="D24" s="3">
-        <v>5</v>
-      </c>
+        <v>36420</v>
+      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
-        <v>156050</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
       <c r="B25" s="8" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C25" s="3">
-        <v>31210</v>
+        <v>36420</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="3">
+        <v>31210</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="23"/>
+      <c r="B27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3">
+        <v>31210</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="12">
-        <f>SUM(D6:D25)</f>
-        <v>5</v>
-      </c>
-      <c r="E26" s="18">
-        <f>SUM(E6:E25)</f>
-        <v>156050</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="19">
-        <v>0</v>
-      </c>
-      <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="12">
+        <f>SUM(D6:D27)</f>
+        <v>30</v>
+      </c>
+      <c r="E28" s="18">
+        <f>SUM(E6:E27)</f>
+        <v>311400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="36"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="19">
+        <v>0</v>
+      </c>
+      <c r="G29" s="21"/>
+    </row>
+    <row r="30" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="18">
-        <f>E26-E27</f>
-        <v>156050</v>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="18">
+        <f>E28-E29</f>
+        <v>311400</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A30:D30"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A29:D29"/>
     <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>Total=</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>Narzo50i</t>
+  </si>
+  <si>
+    <t>Advance(12.01.2022)</t>
   </si>
 </sst>
 </file>
@@ -632,55 +635,55 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1038,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1055,22 +1058,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1078,20 +1081,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
       <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1111,7 +1114,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1127,7 +1130,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1141,7 +1144,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="37" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1157,7 +1160,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1171,7 +1174,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="37" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1187,7 +1190,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1201,7 +1204,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1210,32 +1213,30 @@
       <c r="C12" s="3">
         <v>10250</v>
       </c>
-      <c r="D12" s="3">
-        <v>15</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="2">
         <f t="shared" ref="E12:E13" si="3">D12*C12</f>
-        <v>153750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="3">
-        <v>10510</v>
+        <v>10250</v>
       </c>
       <c r="D13" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="3"/>
-        <v>157650</v>
+        <v>102500</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="37" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1251,7 +1252,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1265,7 +1266,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1281,7 +1282,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1295,7 +1296,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="37" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1311,7 +1312,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1325,7 +1326,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="37" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1341,7 +1342,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
@@ -1355,7 +1356,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="37" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1371,21 +1372,23 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="3">
         <v>20640</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3">
+        <v>10</v>
+      </c>
       <c r="E23" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>206400</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="37" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1401,7 +1404,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="8" t="s">
         <v>36</v>
       </c>
@@ -1415,7 +1418,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="37" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -1431,7 +1434,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="8" t="s">
         <v>6</v>
       </c>
@@ -1448,47 +1451,46 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
+      <c r="A28" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="12">
         <f>SUM(D6:D27)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E28" s="18">
         <f>SUM(E6:E27)</f>
-        <v>311400</v>
+        <v>308900</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
+      <c r="A29" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="36"/>
       <c r="E29" s="19">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24"/>
       <c r="E30" s="18">
         <f>E28-E29</f>
-        <v>311400</v>
+        <v>305000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A30:D30"/>
@@ -1504,6 +1506,9 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1528,20 +1533,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1773,8 +1778,8 @@
       <c r="A21" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -154,7 +154,7 @@
     <t>Narzo50i</t>
   </si>
   <si>
-    <t>Advance(12.01.2022)</t>
+    <t>Biswas Telecom Incentive</t>
   </si>
 </sst>
 </file>
@@ -635,6 +635,12 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -678,12 +684,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1041,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1058,22 +1058,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1081,20 +1081,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44574</v>
+        <v>44578</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
       <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1114,7 +1114,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1130,7 +1130,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1144,7 +1144,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1160,7 +1160,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1174,7 +1174,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1190,7 +1190,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1204,7 +1204,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="22" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1220,7 +1220,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1236,7 +1236,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1252,7 +1252,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1266,7 +1266,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1282,7 +1282,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1296,7 +1296,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1312,7 +1312,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1326,7 +1326,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1342,21 +1342,23 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="3">
         <v>14300</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <v>20</v>
+      </c>
       <c r="E21" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>286000</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1365,30 +1367,30 @@
       <c r="C22" s="3">
         <v>20640</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3">
+        <v>10</v>
+      </c>
       <c r="E22" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>206400</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="3">
         <v>20640</v>
       </c>
-      <c r="D23" s="3">
-        <v>10</v>
-      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="2">
         <f t="shared" si="5"/>
-        <v>206400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="22" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1404,7 +1406,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="8" t="s">
         <v>36</v>
       </c>
@@ -1418,7 +1420,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -1434,7 +1436,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="8" t="s">
         <v>6</v>
       </c>
@@ -1451,46 +1453,47 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
+      <c r="A28" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="12">
         <f>SUM(D6:D27)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E28" s="18">
         <f>SUM(E6:E27)</f>
-        <v>308900</v>
+        <v>594900</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="19">
-        <v>3900</v>
+        <v>87965</v>
       </c>
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="18">
         <f>E28-E29</f>
-        <v>305000</v>
+        <v>506935</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A30:D30"/>
@@ -1508,7 +1511,6 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1533,20 +1535,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1778,8 +1780,8 @@
       <c r="A21" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>Total=</t>
   </si>
@@ -154,7 +154,7 @@
     <t>Narzo50i</t>
   </si>
   <si>
-    <t>Biswas Telecom Incentive</t>
+    <t xml:space="preserve"> 8(5G)</t>
   </si>
 </sst>
 </file>
@@ -1039,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44578</v>
+        <v>44579</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2">
-        <f t="shared" ref="E7:E27" si="0">D7*C7</f>
+        <f t="shared" ref="E7:E29" si="0">D7*C7</f>
         <v>0</v>
       </c>
     </row>
@@ -1227,12 +1227,10 @@
       <c r="C13" s="3">
         <v>10250</v>
       </c>
-      <c r="D13" s="3">
-        <v>10</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="2">
         <f t="shared" si="3"/>
-        <v>102500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1367,12 +1365,10 @@
       <c r="C22" s="3">
         <v>20640</v>
       </c>
-      <c r="D22" s="3">
-        <v>10</v>
-      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="2">
         <f t="shared" si="5"/>
-        <v>206400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
@@ -1391,43 +1387,45 @@
     </row>
     <row r="24" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="3">
-        <v>36420</v>
-      </c>
-      <c r="D24" s="3"/>
+        <v>20970</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5</v>
+      </c>
       <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="E24:E25" si="6">D24*C24</f>
+        <v>104850</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
       <c r="B25" s="8" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C25" s="3">
-        <v>36420</v>
+        <v>20970</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>31210</v>
+        <v>36420</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="2">
@@ -1438,79 +1436,106 @@
     <row r="27" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
       <c r="B27" s="8" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C27" s="3">
-        <v>31210</v>
+        <v>36420</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="3">
+        <v>31210</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="23"/>
+      <c r="B29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3">
+        <v>31210</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="12">
-        <f>SUM(D6:D27)</f>
-        <v>40</v>
-      </c>
-      <c r="E28" s="18">
-        <f>SUM(E6:E27)</f>
-        <v>594900</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="19">
-        <v>87965</v>
-      </c>
-      <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="12">
+        <f>SUM(D6:D29)</f>
+        <v>25</v>
+      </c>
+      <c r="E30" s="18">
+        <f>SUM(E6:E29)</f>
+        <v>390850</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="36"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="19"/>
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="18">
-        <f>E28-E29</f>
-        <v>506935</v>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="18">
+        <f>E30-E31</f>
+        <v>390850</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A30:C30"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
@@ -1257,10 +1257,12 @@
       <c r="C15" s="3">
         <v>10510</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>10</v>
+      </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>105100</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1273,10 +1275,12 @@
       <c r="C16" s="3">
         <v>11380</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>10</v>
+      </c>
       <c r="E16" s="2">
         <f t="shared" ref="E16:E17" si="4">D16*C16</f>
-        <v>0</v>
+        <v>113800</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
@@ -1347,12 +1351,10 @@
       <c r="C21" s="3">
         <v>14300</v>
       </c>
-      <c r="D21" s="3">
-        <v>20</v>
-      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="2">
         <f t="shared" si="5"/>
-        <v>286000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
@@ -1365,10 +1367,12 @@
       <c r="C22" s="3">
         <v>20640</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3">
+        <v>5</v>
+      </c>
       <c r="E22" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>103200</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
@@ -1395,12 +1399,10 @@
       <c r="C24" s="3">
         <v>20970</v>
       </c>
-      <c r="D24" s="3">
-        <v>5</v>
-      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="2">
         <f t="shared" ref="E24:E25" si="6">D24*C24</f>
-        <v>104850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
@@ -1492,7 +1494,7 @@
       </c>
       <c r="E30" s="18">
         <f>SUM(E6:E29)</f>
-        <v>390850</v>
+        <v>322100</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
@@ -1512,17 +1514,11 @@
       <c r="D32" s="26"/>
       <c r="E32" s="18">
         <f>E30-E31</f>
-        <v>390850</v>
+        <v>322100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1536,6 +1532,12 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -13,14 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="Daily " sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Total=</t>
   </si>
@@ -34,27 +33,15 @@
     <t>C20A</t>
   </si>
   <si>
-    <t>C21(3/32)</t>
-  </si>
-  <si>
     <t>Black</t>
   </si>
   <si>
     <t>Blue</t>
   </si>
   <si>
-    <t>C21(4/64)</t>
-  </si>
-  <si>
-    <t>Narzo 30A</t>
-  </si>
-  <si>
     <t>Realme 8</t>
   </si>
   <si>
-    <t>8 Pro</t>
-  </si>
-  <si>
     <t>Colour</t>
   </si>
   <si>
@@ -82,45 +69,9 @@
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>C25s(4/64)</t>
-  </si>
-  <si>
     <t>C25s(4/128)</t>
   </si>
   <si>
-    <t>RP</t>
-  </si>
-  <si>
-    <t>7i</t>
-  </si>
-  <si>
-    <t>C17</t>
-  </si>
-  <si>
-    <t>C15/128</t>
-  </si>
-  <si>
-    <t>C15/64</t>
-  </si>
-  <si>
-    <t>C25(4/64)</t>
-  </si>
-  <si>
-    <t>C25(4/128)</t>
-  </si>
-  <si>
-    <t>C20A = .5%</t>
-  </si>
-  <si>
-    <t>Total= 1%</t>
-  </si>
-  <si>
-    <t>Total Incentive</t>
-  </si>
-  <si>
-    <t>1% Value</t>
-  </si>
-  <si>
     <t>C21Y(4/64)</t>
   </si>
   <si>
@@ -155,6 +106,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 8(5G)</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Cash Back Incentive</t>
   </si>
 </sst>
 </file>
@@ -166,7 +123,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -219,21 +176,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,14 +201,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="25">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -339,36 +282,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -501,64 +414,51 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -566,9 +466,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -581,157 +481,109 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1039,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1051,74 +903,74 @@
     <col min="2" max="2" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" style="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
+      <c r="A2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="9">
+      <c r="A3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44580</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
+        <v>44584</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
+      <c r="A4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="20" t="s">
+      <c r="B5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="C6" s="3">
         <v>8290</v>
@@ -1130,25 +982,25 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="8" t="s">
-        <v>6</v>
+      <c r="A7" s="13"/>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="3">
         <v>8290</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2">
-        <f t="shared" ref="E7:E29" si="0">D7*C7</f>
+        <f t="shared" ref="E7:E30" si="0">D7*C7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>17</v>
+      <c r="A8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C8" s="3">
         <v>8410</v>
@@ -1160,9 +1012,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
+      <c r="A9" s="13"/>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="3">
         <v>8410</v>
@@ -1174,11 +1026,11 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>17</v>
+      <c r="A10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="3">
         <v>10200</v>
@@ -1190,9 +1042,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="8" t="s">
-        <v>6</v>
+      <c r="A11" s="13"/>
+      <c r="B11" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C11" s="3">
         <v>10250</v>
@@ -1204,25 +1056,27 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>5</v>
+      <c r="A12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C12" s="3">
         <v>10250</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
       <c r="E12" s="2">
         <f t="shared" ref="E12:E13" si="3">D12*C12</f>
-        <v>0</v>
+        <v>102500</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
-      <c r="B13" s="8" t="s">
-        <v>6</v>
+      <c r="A13" s="13"/>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C13" s="3">
         <v>10250</v>
@@ -1234,11 +1088,11 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>5</v>
+      <c r="A14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C14" s="3">
         <v>10510</v>
@@ -1250,46 +1104,46 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="8" t="s">
-        <v>6</v>
+      <c r="A15" s="13"/>
+      <c r="B15" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C15" s="3">
         <v>10510</v>
       </c>
       <c r="D15" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
-        <v>105100</v>
+        <v>210200</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>5</v>
+      <c r="A16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C16" s="3">
-        <v>11380</v>
+        <v>11650</v>
       </c>
       <c r="D16" s="3">
         <v>10</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" ref="E16:E17" si="4">D16*C16</f>
-        <v>113800</v>
+        <v>116500</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="8" t="s">
-        <v>6</v>
+      <c r="A17" s="13"/>
+      <c r="B17" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C17" s="3">
-        <v>11380</v>
+        <v>11650</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2">
@@ -1298,11 +1152,11 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>17</v>
+      <c r="A18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C18" s="3">
         <v>13020</v>
@@ -1314,9 +1168,9 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="8" t="s">
-        <v>6</v>
+      <c r="A19" s="13"/>
+      <c r="B19" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C19" s="3">
         <v>13020</v>
@@ -1328,14 +1182,14 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>17</v>
+      <c r="A20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C20" s="3">
-        <v>14300</v>
+        <v>15120</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2">
@@ -1344,57 +1198,59 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
-      <c r="B21" s="8" t="s">
-        <v>6</v>
+      <c r="A21" s="13"/>
+      <c r="B21" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C21" s="3">
-        <v>14300</v>
-      </c>
-      <c r="D21" s="3"/>
+        <v>15120</v>
+      </c>
+      <c r="D21" s="3">
+        <v>10</v>
+      </c>
       <c r="E21" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>151200</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>5</v>
+      <c r="A22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C22" s="3">
         <v>20640</v>
       </c>
-      <c r="D22" s="3">
-        <v>5</v>
-      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="2">
         <f t="shared" si="5"/>
-        <v>103200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
-      <c r="B23" s="8" t="s">
-        <v>18</v>
+      <c r="A23" s="13"/>
+      <c r="B23" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C23" s="3">
         <v>20640</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3">
+        <v>5</v>
+      </c>
       <c r="E23" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>103200</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>5</v>
+      <c r="A24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C24" s="3">
         <v>20970</v>
@@ -1406,9 +1262,9 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
-      <c r="B25" s="8" t="s">
-        <v>18</v>
+      <c r="A25" s="13"/>
+      <c r="B25" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C25" s="3">
         <v>20970</v>
@@ -1420,11 +1276,11 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>5</v>
+      <c r="A26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C26" s="3">
         <v>36420</v>
@@ -1436,99 +1292,123 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="8" t="s">
-        <v>36</v>
+      <c r="A27" s="13"/>
+      <c r="B27" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C27" s="3">
         <v>36420</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
       <c r="E27" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36420</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>17</v>
+      <c r="A28" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C28" s="3">
         <v>31210</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3">
+        <v>3</v>
+      </c>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>93630</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="23"/>
-      <c r="B29" s="8" t="s">
-        <v>6</v>
+      <c r="A29" s="31"/>
+      <c r="B29" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C29" s="3">
         <v>31210</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
       <c r="E29" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31210</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="12">
-        <f>SUM(D6:D29)</f>
-        <v>25</v>
-      </c>
-      <c r="E30" s="18">
-        <f>SUM(E6:E29)</f>
-        <v>322100</v>
+      <c r="A30" s="31"/>
+      <c r="B30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="3">
+        <v>31210</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>31210</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="19"/>
-      <c r="G31" s="21"/>
+      <c r="A31" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="9">
+        <f>SUM(D6:D30)</f>
+        <v>61</v>
+      </c>
+      <c r="E31" s="32">
+        <f>SUM(E6:E30)</f>
+        <v>876070</v>
+      </c>
     </row>
     <row r="32" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
-        <v>38</v>
+      <c r="A32" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
       <c r="D32" s="26"/>
-      <c r="E32" s="18">
-        <f>E30-E31</f>
-        <v>322100</v>
+      <c r="E32" s="34">
+        <v>3000</v>
+      </c>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38">
+        <f>E31-E32</f>
+        <v>873070</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
@@ -1538,326 +1418,8 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A14:A15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
-    </row>
-    <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
-    </row>
-    <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-    </row>
-    <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8">
-        <v>8490</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2">
-        <f>C6*B6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="8">
-        <v>12090</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2">
-        <f t="shared" ref="D7:D19" si="0">C7*B7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="8">
-        <v>13040</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="8">
-        <v>14540</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="8">
-        <v>10320</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="8">
-        <v>11200</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="8">
-        <v>12240</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="8">
-        <v>13070</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="8">
-        <v>13990</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="8">
-        <v>13540</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="8">
-        <v>14470</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="8">
-        <v>21270</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="8">
-        <v>16810</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="8">
-        <v>25890</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="15">
-        <f>SUM(C6:C19)</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="17">
-        <f>SUM(D6:D19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="13">
-        <f>SUM(D7:D19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="6">
-        <f>D6*1%</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="7">
-        <f>D21*2%</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="16">
-        <f>D22+D23</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A33:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Total=</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>White</t>
-  </si>
-  <si>
-    <t>Cash Back Incentive</t>
   </si>
 </sst>
 </file>
@@ -505,75 +502,78 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -581,9 +581,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -893,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -910,22 +907,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -933,20 +930,20 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44584</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
+        <v>44586</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -966,7 +963,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -982,7 +979,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -996,7 +993,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1012,7 +1009,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1026,7 +1023,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="27" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1042,7 +1039,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
@@ -1056,7 +1053,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="27" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1065,30 +1062,30 @@
       <c r="C12" s="3">
         <v>10250</v>
       </c>
-      <c r="D12" s="3">
-        <v>10</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="2">
         <f t="shared" ref="E12:E13" si="3">D12*C12</f>
-        <v>102500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="3">
         <v>10250</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
       <c r="E13" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>102500</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="27" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1104,23 +1101,21 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="3">
         <v>10510</v>
       </c>
-      <c r="D15" s="3">
-        <v>20</v>
-      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
-        <v>210200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="27" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1129,16 +1124,14 @@
       <c r="C16" s="3">
         <v>11650</v>
       </c>
-      <c r="D16" s="3">
-        <v>10</v>
-      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="2">
         <f t="shared" ref="E16:E17" si="4">D16*C16</f>
-        <v>116500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
@@ -1152,7 +1145,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="27" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1168,7 +1161,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
@@ -1182,7 +1175,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="27" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1198,7 +1191,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
@@ -1214,7 +1207,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1230,7 +1223,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
@@ -1238,15 +1231,15 @@
         <v>20640</v>
       </c>
       <c r="D23" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="5"/>
-        <v>103200</v>
+        <v>206400</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="27" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1262,7 +1255,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="5" t="s">
         <v>14</v>
       </c>
@@ -1276,7 +1269,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1292,7 +1285,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="5" t="s">
         <v>20</v>
       </c>
@@ -1308,7 +1301,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -1317,90 +1310,83 @@
       <c r="C28" s="3">
         <v>31210</v>
       </c>
-      <c r="D28" s="3">
-        <v>3</v>
-      </c>
+      <c r="D28" s="3"/>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
-        <v>93630</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="3">
         <v>31210</v>
       </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
+      <c r="D29" s="3"/>
       <c r="E29" s="2">
         <f t="shared" si="0"/>
-        <v>31210</v>
+        <v>0</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="3">
         <v>31210</v>
       </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
+      <c r="D30" s="3"/>
       <c r="E30" s="2">
         <f t="shared" si="0"/>
-        <v>31210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
+      <c r="A31" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="33"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="9">
         <f>SUM(D6:D30)</f>
-        <v>61</v>
-      </c>
-      <c r="E31" s="32">
+        <v>31</v>
+      </c>
+      <c r="E31" s="12">
         <f>SUM(E6:E30)</f>
-        <v>876070</v>
+        <v>496520</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="33" t="s">
-        <v>30</v>
-      </c>
+      <c r="A32" s="24"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
       <c r="D32" s="26"/>
-      <c r="E32" s="34">
-        <v>3000</v>
-      </c>
+      <c r="E32" s="13"/>
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="38">
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="14">
         <f>E31-E32</f>
-        <v>873070</v>
+        <v>496520</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A33:D33"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1417,9 +1403,6 @@
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A33:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -511,6 +511,24 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -547,12 +565,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -569,18 +581,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -891,7 +891,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G13" sqref="G12:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -907,22 +907,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -930,20 +930,20 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44586</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
+        <v>44588</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -963,7 +963,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -979,7 +979,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -993,7 +993,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1009,7 +1009,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1023,7 +1023,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1039,7 +1039,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
@@ -1053,7 +1053,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1069,23 +1069,21 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="3">
         <v>10250</v>
       </c>
-      <c r="D13" s="3">
-        <v>10</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="2">
         <f t="shared" si="3"/>
-        <v>102500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1101,7 +1099,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
@@ -1115,7 +1113,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1124,14 +1122,16 @@
       <c r="C16" s="3">
         <v>11650</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>10</v>
+      </c>
       <c r="E16" s="2">
         <f t="shared" ref="E16:E17" si="4">D16*C16</f>
-        <v>0</v>
+        <v>116500</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
@@ -1145,7 +1145,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1161,7 +1161,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
@@ -1175,7 +1175,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1191,23 +1191,21 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="3">
         <v>15120</v>
       </c>
-      <c r="D21" s="3">
-        <v>10</v>
-      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="2">
         <f t="shared" si="5"/>
-        <v>151200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1216,30 +1214,30 @@
       <c r="C22" s="3">
         <v>20640</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3">
+        <v>5</v>
+      </c>
       <c r="E22" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>103200</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="3">
         <v>20640</v>
       </c>
-      <c r="D23" s="3">
-        <v>10</v>
-      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="2">
         <f t="shared" si="5"/>
-        <v>206400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1255,7 +1253,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="5" t="s">
         <v>14</v>
       </c>
@@ -1269,7 +1267,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1285,23 +1283,21 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="3">
         <v>36420</v>
       </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
+      <c r="D27" s="3"/>
       <c r="E27" s="2">
         <f t="shared" si="0"/>
-        <v>36420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -1317,7 +1313,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="5" t="s">
         <v>5</v>
       </c>
@@ -1334,7 +1330,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="5" t="s">
         <v>29</v>
       </c>
@@ -1348,42 +1344,45 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="34"/>
+      <c r="A31" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="37"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="9">
         <f>SUM(D6:D30)</f>
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E31" s="12">
         <f>SUM(E6:E30)</f>
-        <v>496520</v>
+        <v>219700</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="13"/>
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="14">
         <f>E31-E32</f>
-        <v>496520</v>
+        <v>219700</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A33:D33"/>
@@ -1400,9 +1399,6 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -891,7 +891,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G12:G13"/>
+      <selection activeCell="N8" sqref="N7:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -930,7 +930,7 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44588</v>
+        <v>44594</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="34"/>
@@ -1016,10 +1016,12 @@
       <c r="C9" s="3">
         <v>8410</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>20</v>
+      </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>168200</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1046,10 +1048,12 @@
       <c r="C11" s="3">
         <v>10250</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>20</v>
+      </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>205000</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1076,10 +1080,12 @@
       <c r="C13" s="3">
         <v>10250</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>50</v>
+      </c>
       <c r="E13" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>512500</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1106,10 +1112,12 @@
       <c r="C15" s="3">
         <v>10510</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>40</v>
+      </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>420400</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1122,12 +1130,10 @@
       <c r="C16" s="3">
         <v>11650</v>
       </c>
-      <c r="D16" s="3">
-        <v>10</v>
-      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="2">
         <f t="shared" ref="E16:E17" si="4">D16*C16</f>
-        <v>116500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
@@ -1138,10 +1144,12 @@
       <c r="C17" s="3">
         <v>11650</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <v>100</v>
+      </c>
       <c r="E17" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1165000</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
@@ -1198,10 +1206,12 @@
       <c r="C21" s="3">
         <v>15120</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <v>40</v>
+      </c>
       <c r="E21" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>604800</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
@@ -1215,11 +1225,11 @@
         <v>20640</v>
       </c>
       <c r="D22" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="5"/>
-        <v>103200</v>
+        <v>412800</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
@@ -1230,10 +1240,12 @@
       <c r="C23" s="3">
         <v>20640</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3">
+        <v>5</v>
+      </c>
       <c r="E23" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>103200</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
@@ -1306,10 +1318,12 @@
       <c r="C28" s="3">
         <v>31210</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3">
+        <v>5</v>
+      </c>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>156050</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
@@ -1351,11 +1365,11 @@
       <c r="C31" s="38"/>
       <c r="D31" s="9">
         <f>SUM(D6:D30)</f>
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="E31" s="12">
         <f>SUM(E6:E30)</f>
-        <v>219700</v>
+        <v>3747950</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
@@ -1375,16 +1389,11 @@
       <c r="D33" s="20"/>
       <c r="E33" s="14">
         <f>E31-E32</f>
-        <v>219700</v>
+        <v>3747950</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A28:A30"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1399,6 +1408,11 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A28:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -891,7 +891,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N7:N8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -930,7 +930,7 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="34"/>
@@ -1002,10 +1002,12 @@
       <c r="C8" s="3">
         <v>8410</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>20</v>
+      </c>
       <c r="E8" s="2">
         <f t="shared" ref="E8:E9" si="1">D8*C8</f>
-        <v>0</v>
+        <v>168200</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1016,12 +1018,10 @@
       <c r="C9" s="3">
         <v>8410</v>
       </c>
-      <c r="D9" s="3">
-        <v>20</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>168200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1034,10 +1034,12 @@
       <c r="C10" s="3">
         <v>10200</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>20</v>
+      </c>
       <c r="E10" s="2">
         <f t="shared" ref="E10:E15" si="2">D10*C10</f>
-        <v>0</v>
+        <v>204000</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1048,12 +1050,10 @@
       <c r="C11" s="3">
         <v>10250</v>
       </c>
-      <c r="D11" s="3">
-        <v>20</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>205000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1066,26 +1066,28 @@
       <c r="C12" s="3">
         <v>10250</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>20</v>
+      </c>
       <c r="E12" s="2">
         <f t="shared" ref="E12:E13" si="3">D12*C12</f>
-        <v>0</v>
+        <v>205000</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3">
         <v>10250</v>
       </c>
       <c r="D13" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="3"/>
-        <v>512500</v>
+        <v>307500</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1130,10 +1132,12 @@
       <c r="C16" s="3">
         <v>11650</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>100</v>
+      </c>
       <c r="E16" s="2">
         <f t="shared" ref="E16:E17" si="4">D16*C16</f>
-        <v>0</v>
+        <v>1165000</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
@@ -1144,12 +1148,10 @@
       <c r="C17" s="3">
         <v>11650</v>
       </c>
-      <c r="D17" s="3">
-        <v>100</v>
-      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="2">
         <f t="shared" si="4"/>
-        <v>1165000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
@@ -1207,11 +1209,11 @@
         <v>15120</v>
       </c>
       <c r="D21" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="5"/>
-        <v>604800</v>
+        <v>529200</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
@@ -1258,24 +1260,28 @@
       <c r="C24" s="3">
         <v>20970</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
       <c r="E24" s="2">
         <f t="shared" ref="E24:E25" si="6">D24*C24</f>
-        <v>0</v>
+        <v>62910</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3">
         <v>20970</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
       <c r="E25" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>41940</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
@@ -1369,7 +1375,7 @@
       </c>
       <c r="E31" s="12">
         <f>SUM(E6:E30)</f>
-        <v>3747950</v>
+        <v>3776200</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
@@ -1389,11 +1395,17 @@
       <c r="D33" s="20"/>
       <c r="E33" s="14">
         <f>E31-E32</f>
-        <v>3747950</v>
+        <v>3776200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A28:A30"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1407,12 +1419,6 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A28:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Total=</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>White</t>
+  </si>
+  <si>
+    <t>Advance(03.02.2022)</t>
   </si>
 </sst>
 </file>
@@ -120,7 +123,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -178,8 +181,16 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +209,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -465,7 +482,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -499,9 +516,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -581,6 +595,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -890,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -902,27 +922,27 @@
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" style="1"/>
-    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -930,20 +950,20 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44595</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+        <v>44597</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -963,7 +983,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -979,7 +999,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -993,7 +1013,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1002,16 +1022,14 @@
       <c r="C8" s="3">
         <v>8410</v>
       </c>
-      <c r="D8" s="3">
-        <v>20</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="2">
         <f t="shared" ref="E8:E9" si="1">D8*C8</f>
-        <v>168200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1025,7 +1043,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1034,16 +1052,14 @@
       <c r="C10" s="3">
         <v>10200</v>
       </c>
-      <c r="D10" s="3">
-        <v>20</v>
-      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="2">
         <f t="shared" ref="E10:E15" si="2">D10*C10</f>
-        <v>204000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
@@ -1057,7 +1073,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1066,32 +1082,28 @@
       <c r="C12" s="3">
         <v>10250</v>
       </c>
-      <c r="D12" s="3">
-        <v>20</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="2">
         <f t="shared" ref="E12:E13" si="3">D12*C12</f>
-        <v>205000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="3">
         <v>10250</v>
       </c>
-      <c r="D13" s="3">
-        <v>30</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="2">
         <f t="shared" si="3"/>
-        <v>307500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1107,23 +1119,21 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="3">
         <v>10510</v>
       </c>
-      <c r="D15" s="3">
-        <v>40</v>
-      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
-        <v>420400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1132,16 +1142,14 @@
       <c r="C16" s="3">
         <v>11650</v>
       </c>
-      <c r="D16" s="3">
-        <v>100</v>
-      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="2">
         <f t="shared" ref="E16:E17" si="4">D16*C16</f>
-        <v>1165000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
@@ -1155,7 +1163,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1171,7 +1179,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
@@ -1185,7 +1193,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1201,23 +1209,21 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="3">
         <v>15120</v>
       </c>
-      <c r="D21" s="3">
-        <v>35</v>
-      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="2">
         <f t="shared" si="5"/>
-        <v>529200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1226,32 +1232,28 @@
       <c r="C22" s="3">
         <v>20640</v>
       </c>
-      <c r="D22" s="3">
-        <v>20</v>
-      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="2">
         <f t="shared" si="5"/>
-        <v>412800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="3">
         <v>20640</v>
       </c>
-      <c r="D23" s="3">
-        <v>5</v>
-      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="2">
         <f t="shared" si="5"/>
-        <v>103200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1260,32 +1262,28 @@
       <c r="C24" s="3">
         <v>20970</v>
       </c>
-      <c r="D24" s="3">
-        <v>3</v>
-      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="2">
         <f t="shared" ref="E24:E25" si="6">D24*C24</f>
-        <v>62910</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="3">
         <v>20970</v>
       </c>
-      <c r="D25" s="3">
-        <v>2</v>
-      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="2">
         <f t="shared" si="6"/>
-        <v>41940</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1301,7 +1299,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="5" t="s">
         <v>20</v>
       </c>
@@ -1315,7 +1313,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -1324,16 +1322,14 @@
       <c r="C28" s="3">
         <v>31210</v>
       </c>
-      <c r="D28" s="3">
-        <v>5</v>
-      </c>
+      <c r="D28" s="3"/>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
-        <v>156050</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="5" t="s">
         <v>5</v>
       </c>
@@ -1350,7 +1346,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="5" t="s">
         <v>29</v>
       </c>
@@ -1364,47 +1360,55 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="38"/>
+      <c r="A31" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="9">
         <f>SUM(D6:D30)</f>
-        <v>300</v>
-      </c>
-      <c r="E31" s="12">
+        <v>0</v>
+      </c>
+      <c r="E31" s="11">
         <f>SUM(E6:E30)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="38">
         <v>3776200</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="13"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A32" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="12">
+        <v>29250</v>
+      </c>
+      <c r="G32" s="38">
+        <v>3746950</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="14">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="13">
         <f>E31-E32</f>
-        <v>3776200</v>
+        <v>-29250</v>
+      </c>
+      <c r="G33" s="39">
+        <f>G31-G32</f>
+        <v>29250</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A1:E1"/>
@@ -1419,6 +1423,11 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -525,60 +525,66 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -595,12 +601,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -910,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -950,11 +950,11 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44597</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
+        <v>44598</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
@@ -983,7 +983,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="32" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -999,7 +999,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1013,7 +1013,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="32" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1029,7 +1029,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1043,7 +1043,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1059,7 +1059,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
@@ -1073,7 +1073,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1089,7 +1089,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
@@ -1103,7 +1103,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="32" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1119,7 +1119,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
@@ -1133,7 +1133,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="32" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1149,7 +1149,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
@@ -1163,7 +1163,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="32" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1179,7 +1179,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
@@ -1193,7 +1193,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="32" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1209,7 +1209,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
@@ -1223,7 +1223,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1232,14 +1232,16 @@
       <c r="C22" s="3">
         <v>20640</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3">
+        <v>20</v>
+      </c>
       <c r="E22" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>412800</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
@@ -1253,7 +1255,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="32" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1262,28 +1264,32 @@
       <c r="C24" s="3">
         <v>20970</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
       <c r="E24" s="2">
         <f t="shared" ref="E24:E25" si="6">D24*C24</f>
-        <v>0</v>
+        <v>62910</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="3">
         <v>20970</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
       <c r="E25" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>41940</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1299,7 +1305,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="5" t="s">
         <v>20</v>
       </c>
@@ -1360,20 +1366,20 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
+      <c r="A31" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="9">
         <f>SUM(D6:D30)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E31" s="11">
         <f>SUM(E6:E30)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="38">
+        <v>517650</v>
+      </c>
+      <c r="G31" s="14">
         <v>3776200</v>
       </c>
     </row>
@@ -1387,7 +1393,7 @@
       <c r="E32" s="12">
         <v>29250</v>
       </c>
-      <c r="G32" s="38">
+      <c r="G32" s="14">
         <v>3746950</v>
       </c>
     </row>
@@ -1400,15 +1406,18 @@
       <c r="D33" s="19"/>
       <c r="E33" s="13">
         <f>E31-E32</f>
-        <v>-29250</v>
-      </c>
-      <c r="G33" s="39">
+        <v>488400</v>
+      </c>
+      <c r="G33" s="15">
         <f>G31-G32</f>
         <v>29250</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A1:E1"/>
@@ -1425,9 +1434,6 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Total=</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>White</t>
-  </si>
-  <si>
-    <t>Advance(03.02.2022)</t>
   </si>
 </sst>
 </file>
@@ -123,7 +120,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -181,16 +178,8 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,12 +198,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -482,7 +465,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -525,10 +508,10 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -577,12 +560,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -908,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -921,9 +898,7 @@
     <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="1"/>
-    <col min="7" max="7" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
@@ -950,11 +925,11 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44598</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
+        <v>44599</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
@@ -983,7 +958,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -999,7 +974,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1013,7 +988,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1029,7 +1004,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1043,7 +1018,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1059,7 +1034,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
@@ -1073,7 +1048,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1089,7 +1064,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
@@ -1103,7 +1078,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1119,7 +1094,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
@@ -1133,7 +1108,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1148,8 +1123,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
+    <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
       <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
@@ -1162,8 +1137,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
+    <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1178,8 +1153,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
+    <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
       <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
@@ -1192,8 +1167,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
+    <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1208,8 +1183,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
+    <row r="21" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
@@ -1222,8 +1197,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="32" t="s">
+    <row r="22" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1233,15 +1208,15 @@
         <v>20640</v>
       </c>
       <c r="D22" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="5"/>
-        <v>412800</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
+        <v>206400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
       <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
@@ -1254,8 +1229,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
+    <row r="24" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1265,31 +1240,29 @@
         <v>20970</v>
       </c>
       <c r="D24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" ref="E24:E25" si="6">D24*C24</f>
-        <v>62910</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="33"/>
+        <v>104850</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
       <c r="B25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="3">
         <v>20970</v>
       </c>
-      <c r="D25" s="3">
-        <v>2</v>
-      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="2">
         <f t="shared" si="6"/>
-        <v>41940</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1304,8 +1277,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
+    <row r="27" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
       <c r="B27" s="5" t="s">
         <v>20</v>
       </c>
@@ -1318,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>26</v>
       </c>
@@ -1334,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="5" t="s">
         <v>5</v>
@@ -1347,11 +1320,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="5" t="s">
         <v>29</v>
@@ -1365,39 +1338,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="39"/>
+    <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="9">
         <f>SUM(D6:D30)</f>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E31" s="11">
         <f>SUM(E6:E30)</f>
-        <v>517650</v>
-      </c>
-      <c r="G31" s="14">
-        <v>3776200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
-        <v>30</v>
-      </c>
+        <v>311250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="29"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="31"/>
-      <c r="E32" s="12">
-        <v>29250</v>
-      </c>
-      <c r="G32" s="14">
-        <v>3746950</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>22</v>
       </c>
@@ -1406,20 +1369,11 @@
       <c r="D33" s="19"/>
       <c r="E33" s="13">
         <f>E31-E32</f>
-        <v>488400</v>
-      </c>
-      <c r="G33" s="15">
-        <f>G31-G32</f>
-        <v>29250</v>
+        <v>311250</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A33:D33"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1434,6 +1388,11 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A33:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -508,12 +508,66 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -524,60 +578,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -888,7 +888,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -902,22 +902,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -925,20 +925,20 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44599</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
+        <v>44600</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -958,7 +958,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -974,7 +974,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -988,7 +988,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="26" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1004,7 +1004,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1018,7 +1018,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1034,7 +1034,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
@@ -1048,7 +1048,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="26" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1064,7 +1064,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
@@ -1078,7 +1078,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1094,7 +1094,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
@@ -1108,7 +1108,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="26" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1124,7 +1124,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
@@ -1138,7 +1138,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1154,7 +1154,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
@@ -1168,7 +1168,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1184,7 +1184,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
@@ -1198,7 +1198,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1207,30 +1207,30 @@
       <c r="C22" s="3">
         <v>20640</v>
       </c>
-      <c r="D22" s="3">
-        <v>10</v>
-      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="2">
         <f t="shared" si="5"/>
-        <v>206400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="3">
         <v>20640</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3">
+        <v>10</v>
+      </c>
       <c r="E23" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>206400</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1239,16 +1239,14 @@
       <c r="C24" s="3">
         <v>20970</v>
       </c>
-      <c r="D24" s="3">
-        <v>5</v>
-      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="2">
         <f t="shared" ref="E24:E25" si="6">D24*C24</f>
-        <v>104850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="5" t="s">
         <v>5</v>
       </c>
@@ -1262,7 +1260,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="26" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1278,7 +1276,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="5" t="s">
         <v>20</v>
       </c>
@@ -1292,7 +1290,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="34" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -1308,7 +1306,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="5" t="s">
         <v>5</v>
       </c>
@@ -1325,7 +1323,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="5" t="s">
         <v>29</v>
       </c>
@@ -1339,41 +1337,44 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
+      <c r="A31" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="9">
         <f>SUM(D6:D30)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E31" s="11">
         <f>SUM(E6:E30)</f>
-        <v>311250</v>
+        <v>206400</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
       <c r="E33" s="13">
         <f>E31-E32</f>
-        <v>311250</v>
+        <v>206400</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A33:D33"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1390,9 +1391,6 @@
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A33:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -508,6 +508,24 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -544,12 +562,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -566,18 +578,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -902,22 +902,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -925,20 +925,20 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44600</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
+        <v>44602</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -958,7 +958,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -974,7 +974,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -988,7 +988,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1004,7 +1004,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1018,7 +1018,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1034,7 +1034,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
@@ -1048,7 +1048,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1064,21 +1064,23 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="3">
         <v>10250</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>50</v>
+      </c>
       <c r="E13" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>512500</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1094,7 +1096,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
@@ -1108,7 +1110,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1117,28 +1119,32 @@
       <c r="C16" s="3">
         <v>11650</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>20</v>
+      </c>
       <c r="E16" s="2">
         <f t="shared" ref="E16:E17" si="4">D16*C16</f>
-        <v>0</v>
+        <v>233000</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="3">
         <v>11650</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <v>20</v>
+      </c>
       <c r="E17" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>233000</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1154,7 +1160,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
@@ -1168,7 +1174,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1184,7 +1190,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
@@ -1198,7 +1204,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1214,7 +1220,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
@@ -1222,15 +1228,15 @@
         <v>20640</v>
       </c>
       <c r="D23" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="5"/>
-        <v>206400</v>
+        <v>103200</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1246,7 +1252,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="5" t="s">
         <v>5</v>
       </c>
@@ -1260,7 +1266,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1276,7 +1282,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="5" t="s">
         <v>20</v>
       </c>
@@ -1290,7 +1296,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -1299,14 +1305,16 @@
       <c r="C28" s="3">
         <v>31210</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3">
+        <v>5</v>
+      </c>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>156050</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="34"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="5" t="s">
         <v>5</v>
       </c>
@@ -1323,7 +1331,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="34"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="5" t="s">
         <v>29</v>
       </c>
@@ -1337,43 +1345,41 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
+      <c r="A31" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="9">
         <f>SUM(D6:D30)</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E31" s="11">
         <f>SUM(E6:E30)</f>
-        <v>206400</v>
+        <v>1237750</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="37"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
       <c r="E33" s="13">
         <f>E31-E32</f>
-        <v>206400</v>
+        <v>1237750</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A28:A30"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1391,6 +1397,8 @@
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A28:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -925,7 +925,7 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44602</v>
+        <v>44605</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
@@ -1041,10 +1041,12 @@
       <c r="C11" s="3">
         <v>10250</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>102500</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1072,11 +1074,11 @@
         <v>10250</v>
       </c>
       <c r="D13" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="3"/>
-        <v>512500</v>
+        <v>102500</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1135,12 +1137,10 @@
       <c r="C17" s="3">
         <v>11650</v>
       </c>
-      <c r="D17" s="3">
-        <v>20</v>
-      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="2">
         <f t="shared" si="4"/>
-        <v>233000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1153,10 +1153,12 @@
       <c r="C18" s="3">
         <v>13020</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3">
+        <v>10</v>
+      </c>
       <c r="E18" s="2">
         <f>D18*C18</f>
-        <v>0</v>
+        <v>130200</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1213,10 +1215,12 @@
       <c r="C22" s="3">
         <v>20640</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3">
+        <v>5</v>
+      </c>
       <c r="E22" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>103200</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1227,12 +1231,10 @@
       <c r="C23" s="3">
         <v>20640</v>
       </c>
-      <c r="D23" s="3">
-        <v>5</v>
-      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="2">
         <f t="shared" si="5"/>
-        <v>103200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1306,11 +1308,11 @@
         <v>31210</v>
       </c>
       <c r="D28" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
-        <v>156050</v>
+        <v>124840</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1321,10 +1323,12 @@
       <c r="C29" s="3">
         <v>31210</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
       <c r="E29" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31210</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>25</v>
@@ -1352,11 +1356,11 @@
       <c r="C31" s="37"/>
       <c r="D31" s="9">
         <f>SUM(D6:D30)</f>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E31" s="11">
         <f>SUM(E6:E30)</f>
-        <v>1237750</v>
+        <v>827450</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1375,11 +1379,17 @@
       <c r="D33" s="19"/>
       <c r="E33" s="13">
         <f>E31-E32</f>
-        <v>1237750</v>
+        <v>827450</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A28:A30"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1393,12 +1403,6 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A28:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -888,7 +888,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E33"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -925,7 +925,7 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
@@ -1039,14 +1039,14 @@
         <v>5</v>
       </c>
       <c r="C11" s="3">
-        <v>10250</v>
+        <v>10200</v>
       </c>
       <c r="D11" s="3">
         <v>10</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>102500</v>
+        <v>102000</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="E31" s="11">
         <f>SUM(E6:E30)</f>
-        <v>827450</v>
+        <v>826950</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1379,16 +1379,11 @@
       <c r="D33" s="19"/>
       <c r="E33" s="13">
         <f>E31-E32</f>
-        <v>827450</v>
+        <v>826950</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A1:E1"/>
@@ -1403,6 +1398,11 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Total=</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Blue</t>
   </si>
   <si>
-    <t>Realme 8</t>
-  </si>
-  <si>
     <t>Colour</t>
   </si>
   <si>
@@ -109,6 +106,15 @@
   </si>
   <si>
     <t>White</t>
+  </si>
+  <si>
+    <t>Bule</t>
+  </si>
+  <si>
+    <t>Advance (13.02.2022)</t>
+  </si>
+  <si>
+    <t>9i (6/128)</t>
   </si>
 </sst>
 </file>
@@ -465,7 +471,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -578,6 +584,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -885,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -912,7 +924,7 @@
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -921,11 +933,11 @@
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
@@ -933,7 +945,7 @@
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -945,16 +957,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -962,7 +974,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3">
         <v>8290</v>
@@ -983,24 +995,26 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2">
-        <f t="shared" ref="E7:E30" si="0">D7*C7</f>
+        <f t="shared" ref="E7:E32" si="0">D7*C7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3">
         <v>8410</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>15</v>
+      </c>
       <c r="E8" s="2">
         <f t="shared" ref="E8:E9" si="1">D8*C8</f>
-        <v>0</v>
+        <v>126150</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1019,10 +1033,10 @@
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3">
         <v>10200</v>
@@ -1041,17 +1055,15 @@
       <c r="C11" s="3">
         <v>10200</v>
       </c>
-      <c r="D11" s="3">
-        <v>10</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>102000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>4</v>
@@ -1068,22 +1080,20 @@
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3">
         <v>10250</v>
       </c>
-      <c r="D13" s="3">
-        <v>10</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="2">
         <f t="shared" si="3"/>
-        <v>102500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>4</v>
@@ -1113,7 +1123,7 @@
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>4</v>
@@ -1121,12 +1131,10 @@
       <c r="C16" s="3">
         <v>11650</v>
       </c>
-      <c r="D16" s="3">
-        <v>20</v>
-      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="2">
         <f t="shared" ref="E16:E17" si="4">D16*C16</f>
-        <v>233000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1145,10 +1153,10 @@
     </row>
     <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="3">
         <v>13020</v>
@@ -1177,10 +1185,10 @@
     </row>
     <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3">
         <v>15120</v>
@@ -1206,8 +1214,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>6</v>
+      <c r="A22" s="38">
+        <v>8</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>4</v>
@@ -1215,18 +1223,16 @@
       <c r="C22" s="3">
         <v>20640</v>
       </c>
-      <c r="D22" s="3">
-        <v>5</v>
-      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="2">
         <f t="shared" si="5"/>
-        <v>103200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" s="3">
         <v>20640</v>
@@ -1239,7 +1245,7 @@
     </row>
     <row r="24" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>4</v>
@@ -1249,7 +1255,7 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="2">
-        <f t="shared" ref="E24:E25" si="6">D24*C24</f>
+        <f t="shared" ref="E24:E27" si="6">D24*C24</f>
         <v>0</v>
       </c>
     </row>
@@ -1269,75 +1275,72 @@
     </row>
     <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>36420</v>
-      </c>
-      <c r="D26" s="3"/>
+        <v>17760</v>
+      </c>
+      <c r="D26" s="3">
+        <v>10</v>
+      </c>
       <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>177600</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C27" s="3">
-        <v>36420</v>
+        <v>17760</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>26</v>
+      <c r="A28" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C28" s="3">
-        <v>31210</v>
-      </c>
-      <c r="D28" s="3">
-        <v>4</v>
-      </c>
+        <v>36420</v>
+      </c>
+      <c r="D28" s="3"/>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
-        <v>124840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C29" s="3">
-        <v>31210</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
+        <v>36420</v>
+      </c>
+      <c r="D29" s="3"/>
       <c r="E29" s="2">
         <f t="shared" si="0"/>
-        <v>31210</v>
-      </c>
-      <c r="M29" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
       <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C30" s="3">
         <v>31210</v>
@@ -1349,51 +1352,85 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="9">
-        <f>SUM(D6:D30)</f>
-        <v>60</v>
-      </c>
-      <c r="E31" s="11">
-        <f>SUM(E6:E30)</f>
-        <v>826950</v>
+      <c r="A31" s="16"/>
+      <c r="B31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3">
+        <v>31210</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="13">
-        <f>E31-E32</f>
-        <v>826950</v>
+      <c r="A32" s="16"/>
+      <c r="B32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="3">
+        <v>31210</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="9">
+        <f>SUM(D6:D32)</f>
+        <v>35</v>
+      </c>
+      <c r="E33" s="11">
+        <f>SUM(E6:E32)</f>
+        <v>433950</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="13">
+        <f>E33-E34</f>
+        <v>433450</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A33:D33"/>
+  <mergeCells count="20">
+    <mergeCell ref="A35:D35"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
@@ -1403,6 +1440,8 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A30:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>Total=</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>Bule</t>
-  </si>
-  <si>
-    <t>Advance (13.02.2022)</t>
   </si>
   <si>
     <t>9i (6/128)</t>
@@ -514,82 +511,82 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -899,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -914,22 +911,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -937,20 +934,20 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44607</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
+        <v>44608</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -970,7 +967,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="29" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -986,7 +983,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1000,7 +997,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1009,16 +1006,14 @@
       <c r="C8" s="3">
         <v>8410</v>
       </c>
-      <c r="D8" s="3">
-        <v>15</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="2">
         <f t="shared" ref="E8:E9" si="1">D8*C8</f>
-        <v>126150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1032,7 +1027,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1048,7 +1043,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
@@ -1062,7 +1057,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1078,7 +1073,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1092,7 +1087,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1108,7 +1103,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
@@ -1122,7 +1117,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1138,7 +1133,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
@@ -1152,30 +1147,28 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="3">
-        <v>13020</v>
-      </c>
-      <c r="D18" s="3">
-        <v>10</v>
-      </c>
+        <v>12570</v>
+      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="2">
         <f>D18*C18</f>
-        <v>130200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="3">
-        <v>13020</v>
+        <v>12570</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2">
@@ -1184,14 +1177,14 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="3">
-        <v>15120</v>
+        <v>14510</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2">
@@ -1200,21 +1193,23 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="3">
-        <v>15120</v>
-      </c>
-      <c r="D21" s="3"/>
+        <v>14510</v>
+      </c>
+      <c r="D21" s="3">
+        <v>10</v>
+      </c>
       <c r="E21" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>145100</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="38">
+      <c r="A22" s="37">
         <v>8</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1230,7 +1225,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="5" t="s">
         <v>13</v>
       </c>
@@ -1244,7 +1239,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1260,7 +1255,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="5" t="s">
         <v>5</v>
       </c>
@@ -1274,8 +1269,8 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>31</v>
+      <c r="A26" s="29" t="s">
+        <v>30</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>4</v>
@@ -1292,7 +1287,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="5" t="s">
         <v>29</v>
       </c>
@@ -1306,7 +1301,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -1322,7 +1317,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="5" t="s">
         <v>19</v>
       </c>
@@ -1336,7 +1331,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="39" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1352,7 +1347,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="5" t="s">
         <v>5</v>
       </c>
@@ -1369,7 +1364,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="5" t="s">
         <v>28</v>
       </c>
@@ -1383,45 +1378,45 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="37"/>
+      <c r="A33" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="9">
         <f>SUM(D6:D32)</f>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E33" s="11">
         <f>SUM(E6:E32)</f>
-        <v>433950</v>
+        <v>322700</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="12">
-        <v>500</v>
-      </c>
+      <c r="A34" s="26"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="13">
         <f>E33-E34</f>
-        <v>433450</v>
+        <v>322700</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A30:A32"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1438,10 +1433,6 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A30:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Total=</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Model</t>
   </si>
   <si>
-    <t>C20A</t>
-  </si>
-  <si>
     <t>Black</t>
   </si>
   <si>
@@ -112,6 +109,12 @@
   </si>
   <si>
     <t>9i (6/128)</t>
+  </si>
+  <si>
+    <t>9i (4/64)</t>
+  </si>
+  <si>
+    <t>Advance(16.02.2022)</t>
   </si>
 </sst>
 </file>
@@ -511,6 +514,15 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -556,12 +568,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -584,9 +590,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -897,7 +900,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -911,114 +914,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
+      <c r="A2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44608</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
+        <v>44609</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
+      <c r="A4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
-        <v>3</v>
+      <c r="A6" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3">
-        <v>8290</v>
+        <v>8410</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2">
-        <f>D6*C6</f>
+        <f t="shared" ref="E6:E7" si="0">D6*C6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3">
-        <v>8290</v>
+        <v>8410</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2">
-        <f t="shared" ref="E7:E32" si="0">D7*C7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
-        <v>23</v>
+      <c r="A8" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3">
-        <v>8410</v>
+        <v>10200</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2">
-        <f t="shared" ref="E8:E9" si="1">D8*C8</f>
+        <f t="shared" ref="E8:E13" si="1">D8*C8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3">
-        <v>8410</v>
+        <v>10200</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2">
@@ -1027,28 +1030,28 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
-        <v>20</v>
+      <c r="A10" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3">
-        <v>10200</v>
+        <v>10250</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2">
-        <f t="shared" ref="E10:E15" si="2">D10*C10</f>
+        <f t="shared" ref="E10:E11" si="2">D10*C10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="5" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3">
-        <v>10200</v>
+        <v>10250</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2">
@@ -1057,180 +1060,178 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
-        <v>26</v>
+      <c r="A12" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3">
-        <v>10250</v>
+        <v>10510</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2">
-        <f t="shared" ref="E12:E13" si="3">D12*C12</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C13" s="3">
-        <v>10250</v>
+        <v>10510</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
-        <v>22</v>
+      <c r="A14" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="3">
-        <v>10510</v>
+        <v>11650</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E14:E15" si="3">D14*C14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="3">
-        <v>10510</v>
+        <v>11650</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
-        <v>16</v>
+      <c r="A16" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C16" s="3">
-        <v>11650</v>
+        <v>12570</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2">
-        <f t="shared" ref="E16:E17" si="4">D16*C16</f>
+        <f>D16*C16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3">
-        <v>11650</v>
+        <v>12570</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2">
-        <f t="shared" si="4"/>
+        <f>D17*C17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
-        <v>18</v>
+      <c r="A18" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="3">
-        <v>12570</v>
+        <v>14510</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="2">
-        <f>D18*C18</f>
+        <f t="shared" ref="E18:E21" si="4">D18*C18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3">
-        <v>12570</v>
+        <v>14510</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2">
-        <f>D19*C19</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
-        <v>15</v>
+      <c r="A20" s="38">
+        <v>8</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3">
-        <v>14510</v>
+        <v>20640</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2">
-        <f t="shared" ref="E20:E23" si="5">D20*C20</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C21" s="3">
-        <v>14510</v>
-      </c>
-      <c r="D21" s="3">
-        <v>10</v>
-      </c>
+        <v>20640</v>
+      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="2">
-        <f t="shared" si="5"/>
-        <v>145100</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="37">
-        <v>8</v>
+      <c r="A22" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3">
-        <v>20640</v>
+        <v>20970</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E22:E27" si="5">D22*C22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3">
-        <v>20640</v>
+        <v>20970</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="2">
@@ -1239,200 +1240,206 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
-        <v>27</v>
+      <c r="A24" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
-        <v>20970</v>
+        <v>15930</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="2">
-        <f t="shared" ref="E24:E27" si="6">D24*C24</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="5" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C25" s="3">
-        <v>20970</v>
-      </c>
-      <c r="D25" s="3"/>
+        <v>15930</v>
+      </c>
+      <c r="D25" s="3">
+        <v>10</v>
+      </c>
       <c r="E25" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>159300</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
-        <v>30</v>
+      <c r="A26" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3">
         <v>17760</v>
       </c>
       <c r="D26" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="6"/>
-        <v>177600</v>
+        <f t="shared" si="5"/>
+        <v>1065600</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="3">
         <v>17760</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
-        <v>17</v>
+      <c r="A28" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
         <v>36420</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E28:E32" si="6">D28*C28</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="3">
         <v>36420</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="39" t="s">
-        <v>25</v>
+      <c r="A30" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="3">
         <v>31210</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="3">
         <v>31210</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="3">
         <v>31210</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
+      <c r="A33" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="9">
         <f>SUM(D6:D32)</f>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E33" s="11">
         <f>SUM(E6:E32)</f>
+        <v>1224900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="12">
         <v>322700</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="26"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="12"/>
-    </row>
     <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
+      <c r="A35" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
       <c r="E35" s="13">
         <f>E33-E34</f>
-        <v>322700</v>
+        <v>902200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A35:D35"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A35:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>Total=</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>9i (4/64)</t>
-  </si>
-  <si>
-    <t>Advance(16.02.2022)</t>
   </si>
 </sst>
 </file>
@@ -123,7 +120,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="0" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
@@ -468,14 +465,14 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -484,25 +481,25 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -514,76 +511,76 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -899,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -937,7 +934,7 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44609</v>
+        <v>44611</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
@@ -979,10 +976,12 @@
       <c r="C6" s="3">
         <v>8410</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
       <c r="E6" s="2">
         <f t="shared" ref="E6:E7" si="0">D6*C6</f>
-        <v>0</v>
+        <v>84100</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -993,10 +992,12 @@
       <c r="C7" s="3">
         <v>8410</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <v>20</v>
+      </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>168200</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1009,10 +1010,12 @@
       <c r="C8" s="3">
         <v>10200</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>40</v>
+      </c>
       <c r="E8" s="2">
         <f t="shared" ref="E8:E13" si="1">D8*C8</f>
-        <v>0</v>
+        <v>408000</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1023,10 +1026,12 @@
       <c r="C9" s="3">
         <v>10200</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>40</v>
+      </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>408000</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1099,10 +1104,12 @@
       <c r="C14" s="3">
         <v>11650</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <v>30</v>
+      </c>
       <c r="E14" s="2">
         <f t="shared" ref="E14:E15" si="3">D14*C14</f>
-        <v>0</v>
+        <v>349500</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1113,10 +1120,12 @@
       <c r="C15" s="3">
         <v>11650</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>30</v>
+      </c>
       <c r="E15" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>349500</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1129,10 +1138,12 @@
       <c r="C16" s="3">
         <v>12570</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>30</v>
+      </c>
       <c r="E16" s="2">
         <f>D16*C16</f>
-        <v>0</v>
+        <v>377100</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1143,10 +1154,12 @@
       <c r="C17" s="3">
         <v>12570</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <v>40</v>
+      </c>
       <c r="E17" s="2">
         <f>D17*C17</f>
-        <v>0</v>
+        <v>502800</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1159,10 +1172,12 @@
       <c r="C18" s="3">
         <v>14510</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3">
+        <v>50</v>
+      </c>
       <c r="E18" s="2">
         <f t="shared" ref="E18:E21" si="4">D18*C18</f>
-        <v>0</v>
+        <v>725500</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1173,10 +1188,12 @@
       <c r="C19" s="3">
         <v>14510</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <v>50</v>
+      </c>
       <c r="E19" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>725500</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1203,10 +1220,12 @@
       <c r="C21" s="3">
         <v>20640</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <v>15</v>
+      </c>
       <c r="E21" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>309600</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1249,10 +1268,12 @@
       <c r="C24" s="3">
         <v>15930</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3">
+        <v>10</v>
+      </c>
       <c r="E24" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>159300</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1281,12 +1302,10 @@
       <c r="C26" s="3">
         <v>17760</v>
       </c>
-      <c r="D26" s="3">
-        <v>60</v>
-      </c>
+      <c r="D26" s="3"/>
       <c r="E26" s="2">
         <f t="shared" si="5"/>
-        <v>1065600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1297,10 +1316,12 @@
       <c r="C27" s="3">
         <v>17760</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3">
+        <v>60</v>
+      </c>
       <c r="E27" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1065600</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1327,10 +1348,12 @@
       <c r="C29" s="3">
         <v>36420</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3">
+        <v>2</v>
+      </c>
       <c r="E29" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>72840</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1343,10 +1366,12 @@
       <c r="C30" s="3">
         <v>31210</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3">
+        <v>3</v>
+      </c>
       <c r="E30" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>93630</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1357,10 +1382,12 @@
       <c r="C31" s="3">
         <v>31210</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
       <c r="E31" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>31210</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>23</v>
@@ -1374,10 +1401,12 @@
       <c r="C32" s="3">
         <v>31210</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
       <c r="E32" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>31210</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1388,23 +1417,19 @@
       <c r="C33" s="37"/>
       <c r="D33" s="9">
         <f>SUM(D6:D32)</f>
-        <v>70</v>
+        <v>442</v>
       </c>
       <c r="E33" s="11">
         <f>SUM(E6:E32)</f>
-        <v>1224900</v>
+        <v>6020890</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="29" t="s">
-        <v>31</v>
-      </c>
+      <c r="A34" s="29"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="31"/>
-      <c r="E34" s="12">
-        <v>322700</v>
-      </c>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
@@ -1415,11 +1440,19 @@
       <c r="D35" s="19"/>
       <c r="E35" s="13">
         <f>E33-E34</f>
-        <v>902200</v>
+        <v>6020890</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A35:D35"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1432,14 +1465,6 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A35:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -120,7 +120,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="0" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
@@ -465,14 +465,14 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -481,25 +481,25 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -511,76 +511,76 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -897,7 +897,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -934,7 +934,7 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
@@ -1011,11 +1011,11 @@
         <v>10200</v>
       </c>
       <c r="D8" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ref="E8:E13" si="1">D8*C8</f>
-        <v>408000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1027,11 +1027,11 @@
         <v>10200</v>
       </c>
       <c r="D9" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>408000</v>
+        <v>306000</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1104,12 +1104,10 @@
       <c r="C14" s="3">
         <v>11650</v>
       </c>
-      <c r="D14" s="3">
-        <v>30</v>
-      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="2">
         <f t="shared" ref="E14:E15" si="3">D14*C14</f>
-        <v>349500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1121,11 +1119,11 @@
         <v>11650</v>
       </c>
       <c r="D15" s="3">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="3"/>
-        <v>349500</v>
+        <v>932000</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1139,11 +1137,11 @@
         <v>12570</v>
       </c>
       <c r="D16" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2">
         <f>D16*C16</f>
-        <v>377100</v>
+        <v>502800</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1155,11 +1153,11 @@
         <v>12570</v>
       </c>
       <c r="D17" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2">
         <f>D17*C17</f>
-        <v>502800</v>
+        <v>754200</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1189,11 +1187,11 @@
         <v>14510</v>
       </c>
       <c r="D19" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="4"/>
-        <v>725500</v>
+        <v>870600</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1221,11 +1219,11 @@
         <v>20640</v>
       </c>
       <c r="D21" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="4"/>
-        <v>309600</v>
+        <v>619200</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1269,11 +1267,11 @@
         <v>15930</v>
       </c>
       <c r="D24" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="5"/>
-        <v>159300</v>
+        <v>238950</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1285,11 +1283,11 @@
         <v>15930</v>
       </c>
       <c r="D25" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="5"/>
-        <v>159300</v>
+        <v>318600</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1316,12 +1314,10 @@
       <c r="C27" s="3">
         <v>17760</v>
       </c>
-      <c r="D27" s="3">
-        <v>60</v>
-      </c>
+      <c r="D27" s="3"/>
       <c r="E27" s="2">
         <f t="shared" si="5"/>
-        <v>1065600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1417,11 +1413,11 @@
       <c r="C33" s="37"/>
       <c r="D33" s="9">
         <f>SUM(D6:D32)</f>
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="E33" s="11">
         <f>SUM(E6:E32)</f>
-        <v>6020890</v>
+        <v>6259040</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1440,16 +1436,11 @@
       <c r="D35" s="19"/>
       <c r="E35" s="13">
         <f>E33-E34</f>
-        <v>6020890</v>
+        <v>6259040</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A35:D35"/>
@@ -1465,6 +1456,11 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -897,7 +897,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -934,7 +934,7 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44612</v>
+        <v>44615</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
@@ -976,12 +976,10 @@
       <c r="C6" s="3">
         <v>8410</v>
       </c>
-      <c r="D6" s="3">
-        <v>10</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="2">
         <f t="shared" ref="E6:E7" si="0">D6*C6</f>
-        <v>84100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -992,12 +990,10 @@
       <c r="C7" s="3">
         <v>8410</v>
       </c>
-      <c r="D7" s="3">
-        <v>20</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>168200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1010,12 +1006,10 @@
       <c r="C8" s="3">
         <v>10200</v>
       </c>
-      <c r="D8" s="3">
-        <v>50</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="2">
         <f t="shared" ref="E8:E13" si="1">D8*C8</f>
-        <v>510000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1026,12 +1020,10 @@
       <c r="C9" s="3">
         <v>10200</v>
       </c>
-      <c r="D9" s="3">
-        <v>30</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>306000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1119,11 +1111,11 @@
         <v>11650</v>
       </c>
       <c r="D15" s="3">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="3"/>
-        <v>932000</v>
+        <v>233000</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1136,12 +1128,10 @@
       <c r="C16" s="3">
         <v>12570</v>
       </c>
-      <c r="D16" s="3">
-        <v>40</v>
-      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="2">
         <f>D16*C16</f>
-        <v>502800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1153,11 +1143,11 @@
         <v>12570</v>
       </c>
       <c r="D17" s="3">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2">
         <f>D17*C17</f>
-        <v>754200</v>
+        <v>125700</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1170,12 +1160,10 @@
       <c r="C18" s="3">
         <v>14510</v>
       </c>
-      <c r="D18" s="3">
-        <v>50</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="2">
         <f t="shared" ref="E18:E21" si="4">D18*C18</f>
-        <v>725500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1187,11 +1175,11 @@
         <v>14510</v>
       </c>
       <c r="D19" s="3">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="4"/>
-        <v>870600</v>
+        <v>145100</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1219,11 +1207,11 @@
         <v>20640</v>
       </c>
       <c r="D21" s="3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="4"/>
-        <v>619200</v>
+        <v>103200</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1266,12 +1254,10 @@
       <c r="C24" s="3">
         <v>15930</v>
       </c>
-      <c r="D24" s="3">
-        <v>15</v>
-      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="2">
         <f t="shared" si="5"/>
-        <v>238950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1283,11 +1269,11 @@
         <v>15930</v>
       </c>
       <c r="D25" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="5"/>
-        <v>318600</v>
+        <v>398250</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1344,12 +1330,10 @@
       <c r="C29" s="3">
         <v>36420</v>
       </c>
-      <c r="D29" s="3">
-        <v>2</v>
-      </c>
+      <c r="D29" s="3"/>
       <c r="E29" s="2">
         <f t="shared" si="6"/>
-        <v>72840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1362,12 +1346,10 @@
       <c r="C30" s="3">
         <v>31210</v>
       </c>
-      <c r="D30" s="3">
-        <v>3</v>
-      </c>
+      <c r="D30" s="3"/>
       <c r="E30" s="2">
         <f t="shared" si="6"/>
-        <v>93630</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1378,12 +1360,10 @@
       <c r="C31" s="3">
         <v>31210</v>
       </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
+      <c r="D31" s="3"/>
       <c r="E31" s="2">
         <f t="shared" si="6"/>
-        <v>31210</v>
+        <v>0</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>23</v>
@@ -1397,12 +1377,10 @@
       <c r="C32" s="3">
         <v>31210</v>
       </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
+      <c r="D32" s="3"/>
       <c r="E32" s="2">
         <f t="shared" si="6"/>
-        <v>31210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1413,11 +1391,11 @@
       <c r="C33" s="37"/>
       <c r="D33" s="9">
         <f>SUM(D6:D32)</f>
-        <v>472</v>
+        <v>70</v>
       </c>
       <c r="E33" s="11">
         <f>SUM(E6:E32)</f>
-        <v>6259040</v>
+        <v>1005250</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1436,11 +1414,15 @@
       <c r="D35" s="19"/>
       <c r="E35" s="13">
         <f>E33-E34</f>
-        <v>6259040</v>
+        <v>1005250</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A35:D35"/>
@@ -1457,10 +1439,6 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -897,7 +897,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -934,7 +934,7 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
@@ -976,10 +976,12 @@
       <c r="C6" s="3">
         <v>8410</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
       <c r="E6" s="2">
         <f t="shared" ref="E6:E7" si="0">D6*C6</f>
-        <v>0</v>
+        <v>84100</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -990,10 +992,12 @@
       <c r="C7" s="3">
         <v>8410</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <v>20</v>
+      </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>168200</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1110,12 +1114,10 @@
       <c r="C15" s="3">
         <v>11650</v>
       </c>
-      <c r="D15" s="3">
-        <v>20</v>
-      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="2">
         <f t="shared" si="3"/>
-        <v>233000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1206,12 +1208,10 @@
       <c r="C21" s="3">
         <v>20640</v>
       </c>
-      <c r="D21" s="3">
-        <v>5</v>
-      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="2">
         <f t="shared" si="4"/>
-        <v>103200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1254,10 +1254,12 @@
       <c r="C24" s="3">
         <v>15930</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3">
+        <v>10</v>
+      </c>
       <c r="E24" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>159300</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1269,11 +1271,11 @@
         <v>15930</v>
       </c>
       <c r="D25" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="5"/>
-        <v>398250</v>
+        <v>318600</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1391,11 +1393,11 @@
       <c r="C33" s="37"/>
       <c r="D33" s="9">
         <f>SUM(D6:D32)</f>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E33" s="11">
         <f>SUM(E6:E32)</f>
-        <v>1005250</v>
+        <v>1001000</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1414,16 +1416,11 @@
       <c r="D35" s="19"/>
       <c r="E35" s="13">
         <f>E33-E34</f>
-        <v>1005250</v>
+        <v>1001000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A1:E1"/>
@@ -1439,6 +1436,11 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -897,7 +897,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -934,7 +934,7 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
@@ -993,11 +993,11 @@
         <v>8410</v>
       </c>
       <c r="D7" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>168200</v>
+        <v>84100</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1100,10 +1100,12 @@
       <c r="C14" s="3">
         <v>11650</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <v>20</v>
+      </c>
       <c r="E14" s="2">
         <f t="shared" ref="E14:E15" si="3">D14*C14</f>
-        <v>0</v>
+        <v>233000</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1114,10 +1116,12 @@
       <c r="C15" s="3">
         <v>11650</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>20</v>
+      </c>
       <c r="E15" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>233000</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1144,12 +1148,10 @@
       <c r="C17" s="3">
         <v>12570</v>
       </c>
-      <c r="D17" s="3">
-        <v>10</v>
-      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="2">
         <f>D17*C17</f>
-        <v>125700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1176,12 +1178,10 @@
       <c r="C19" s="3">
         <v>14510</v>
       </c>
-      <c r="D19" s="3">
-        <v>10</v>
-      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="2">
         <f t="shared" si="4"/>
-        <v>145100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1254,12 +1254,10 @@
       <c r="C24" s="3">
         <v>15930</v>
       </c>
-      <c r="D24" s="3">
-        <v>10</v>
-      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="2">
         <f t="shared" si="5"/>
-        <v>159300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1270,12 +1268,10 @@
       <c r="C25" s="3">
         <v>15930</v>
       </c>
-      <c r="D25" s="3">
-        <v>20</v>
-      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="2">
         <f t="shared" si="5"/>
-        <v>318600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1393,11 +1389,11 @@
       <c r="C33" s="37"/>
       <c r="D33" s="9">
         <f>SUM(D6:D32)</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E33" s="11">
         <f>SUM(E6:E32)</f>
-        <v>1001000</v>
+        <v>634200</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1416,12 +1412,11 @@
       <c r="D35" s="19"/>
       <c r="E35" s="13">
         <f>E33-E34</f>
-        <v>1001000</v>
+        <v>634200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A30:A32"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1441,6 +1436,7 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A30:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -897,7 +897,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="M15" sqref="M14:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -934,7 +934,7 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44619</v>
+        <v>44620</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
@@ -977,11 +977,11 @@
         <v>8410</v>
       </c>
       <c r="D6" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" ref="E6:E7" si="0">D6*C6</f>
-        <v>84100</v>
+        <v>168200</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -993,11 +993,11 @@
         <v>8410</v>
       </c>
       <c r="D7" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>84100</v>
+        <v>168200</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1010,10 +1010,12 @@
       <c r="C8" s="3">
         <v>10200</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>30</v>
+      </c>
       <c r="E8" s="2">
         <f t="shared" ref="E8:E13" si="1">D8*C8</f>
-        <v>0</v>
+        <v>306000</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1024,10 +1026,12 @@
       <c r="C9" s="3">
         <v>10200</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>30</v>
+      </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>306000</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1070,10 +1074,12 @@
       <c r="C12" s="3">
         <v>10510</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>20</v>
+      </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>210200</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1084,10 +1090,12 @@
       <c r="C13" s="3">
         <v>10510</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>20</v>
+      </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>210200</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1100,12 +1108,10 @@
       <c r="C14" s="3">
         <v>11650</v>
       </c>
-      <c r="D14" s="3">
-        <v>20</v>
-      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="2">
         <f t="shared" ref="E14:E15" si="3">D14*C14</f>
-        <v>233000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1116,12 +1122,10 @@
       <c r="C15" s="3">
         <v>11650</v>
       </c>
-      <c r="D15" s="3">
-        <v>20</v>
-      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="2">
         <f t="shared" si="3"/>
-        <v>233000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1134,10 +1138,12 @@
       <c r="C16" s="3">
         <v>12570</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>20</v>
+      </c>
       <c r="E16" s="2">
         <f>D16*C16</f>
-        <v>0</v>
+        <v>251400</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1148,10 +1154,12 @@
       <c r="C17" s="3">
         <v>12570</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <v>30</v>
+      </c>
       <c r="E17" s="2">
         <f>D17*C17</f>
-        <v>0</v>
+        <v>377100</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1164,10 +1172,12 @@
       <c r="C18" s="3">
         <v>14510</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3">
+        <v>20</v>
+      </c>
       <c r="E18" s="2">
         <f t="shared" ref="E18:E21" si="4">D18*C18</f>
-        <v>0</v>
+        <v>290200</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1178,10 +1188,12 @@
       <c r="C19" s="3">
         <v>14510</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <v>20</v>
+      </c>
       <c r="E19" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>290200</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1208,10 +1220,12 @@
       <c r="C21" s="3">
         <v>20640</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <v>15</v>
+      </c>
       <c r="E21" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>309600</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1344,10 +1358,12 @@
       <c r="C30" s="3">
         <v>31210</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3">
+        <v>3</v>
+      </c>
       <c r="E30" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>93630</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1358,10 +1374,12 @@
       <c r="C31" s="3">
         <v>31210</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
       <c r="E31" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>62420</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>23</v>
@@ -1389,11 +1407,11 @@
       <c r="C33" s="37"/>
       <c r="D33" s="9">
         <f>SUM(D6:D32)</f>
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="E33" s="11">
         <f>SUM(E6:E32)</f>
-        <v>634200</v>
+        <v>3043350</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1412,12 +1430,11 @@
       <c r="D35" s="19"/>
       <c r="E35" s="13">
         <f>E33-E34</f>
-        <v>634200</v>
+        <v>3043350</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A35:D35"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1437,6 +1454,7 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A35:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Total=</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>9i (4/64)</t>
+  </si>
+  <si>
+    <t>Advance(02.03.2022)</t>
   </si>
 </sst>
 </file>
@@ -511,12 +514,72 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -527,66 +590,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -897,7 +900,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M14:M15"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -911,22 +914,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -934,20 +937,20 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44620</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
+        <v>44623</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -967,7 +970,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="26" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -976,32 +979,28 @@
       <c r="C6" s="3">
         <v>8410</v>
       </c>
-      <c r="D6" s="3">
-        <v>20</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="2">
         <f t="shared" ref="E6:E7" si="0">D6*C6</f>
-        <v>168200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3">
         <v>8410</v>
       </c>
-      <c r="D7" s="3">
-        <v>20</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>168200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1010,32 +1009,28 @@
       <c r="C8" s="3">
         <v>10200</v>
       </c>
-      <c r="D8" s="3">
-        <v>30</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="2">
         <f t="shared" ref="E8:E13" si="1">D8*C8</f>
-        <v>306000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3">
         <v>10200</v>
       </c>
-      <c r="D9" s="3">
-        <v>30</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>306000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="26" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1051,7 +1046,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
@@ -1065,7 +1060,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1074,32 +1069,28 @@
       <c r="C12" s="3">
         <v>10510</v>
       </c>
-      <c r="D12" s="3">
-        <v>20</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>210200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="3">
         <v>10510</v>
       </c>
-      <c r="D13" s="3">
-        <v>20</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>210200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1115,7 +1106,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
@@ -1129,7 +1120,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="26" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1138,32 +1129,28 @@
       <c r="C16" s="3">
         <v>12570</v>
       </c>
-      <c r="D16" s="3">
-        <v>20</v>
-      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="2">
         <f>D16*C16</f>
-        <v>251400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="3">
         <v>12570</v>
       </c>
-      <c r="D17" s="3">
-        <v>30</v>
-      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="2">
         <f>D17*C17</f>
-        <v>377100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1172,32 +1159,28 @@
       <c r="C18" s="3">
         <v>14510</v>
       </c>
-      <c r="D18" s="3">
-        <v>20</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="2">
         <f t="shared" ref="E18:E21" si="4">D18*C18</f>
-        <v>290200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="3">
         <v>14510</v>
       </c>
-      <c r="D19" s="3">
-        <v>20</v>
-      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="2">
         <f t="shared" si="4"/>
-        <v>290200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="38">
+      <c r="A20" s="34">
         <v>8</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1213,23 +1196,21 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="3">
         <v>20640</v>
       </c>
-      <c r="D21" s="3">
-        <v>15</v>
-      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="2">
         <f t="shared" si="4"/>
-        <v>309600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="26" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1245,7 +1226,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="5" t="s">
         <v>4</v>
       </c>
@@ -1259,7 +1240,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="26" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1275,7 +1256,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="5" t="s">
         <v>28</v>
       </c>
@@ -1289,7 +1270,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="26" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1305,21 +1286,23 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="3">
         <v>17760</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3">
+        <v>10</v>
+      </c>
       <c r="E27" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>177600</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -1335,7 +1318,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="5" t="s">
         <v>18</v>
       </c>
@@ -1349,7 +1332,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="36" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1358,35 +1341,31 @@
       <c r="C30" s="3">
         <v>31210</v>
       </c>
-      <c r="D30" s="3">
-        <v>3</v>
-      </c>
+      <c r="D30" s="3"/>
       <c r="E30" s="2">
         <f t="shared" si="6"/>
-        <v>93630</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="3">
         <v>31210</v>
       </c>
-      <c r="D31" s="3">
-        <v>2</v>
-      </c>
+      <c r="D31" s="3"/>
       <c r="E31" s="2">
         <f t="shared" si="6"/>
-        <v>62420</v>
+        <v>0</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="5" t="s">
         <v>27</v>
       </c>
@@ -1400,41 +1379,49 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="37"/>
+      <c r="A33" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="9">
         <f>SUM(D6:D32)</f>
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="E33" s="11">
         <f>SUM(E6:E32)</f>
-        <v>3043350</v>
+        <v>177600</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="12"/>
+      <c r="A34" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="12">
+        <v>182850</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="13">
         <f>E33-E34</f>
-        <v>3043350</v>
+        <v>-5250</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A35:D35"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1451,10 +1438,6 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A35:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -114,7 +114,7 @@
     <t>9i (4/64)</t>
   </si>
   <si>
-    <t>Advance(02.03.2022)</t>
+    <t>Advance</t>
   </si>
 </sst>
 </file>
@@ -514,6 +514,24 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -550,12 +568,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -578,18 +590,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -900,7 +900,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -914,22 +914,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -937,20 +937,20 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44623</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
+        <v>44626</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -970,7 +970,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -986,7 +986,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1000,7 +1000,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1016,7 +1016,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
@@ -1030,7 +1030,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1046,7 +1046,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
@@ -1060,7 +1060,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1076,7 +1076,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
@@ -1090,7 +1090,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1106,7 +1106,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
@@ -1120,7 +1120,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1136,7 +1136,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="5" t="s">
         <v>4</v>
       </c>
@@ -1150,7 +1150,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1166,7 +1166,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
@@ -1180,7 +1180,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="34">
+      <c r="A20" s="38">
         <v>8</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1196,7 +1196,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="5" t="s">
         <v>12</v>
       </c>
@@ -1210,7 +1210,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1226,7 +1226,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="5" t="s">
         <v>4</v>
       </c>
@@ -1240,7 +1240,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1256,7 +1256,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="5" t="s">
         <v>28</v>
       </c>
@@ -1270,7 +1270,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1286,7 +1286,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="5" t="s">
         <v>28</v>
       </c>
@@ -1294,15 +1294,15 @@
         <v>17760</v>
       </c>
       <c r="D27" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="5"/>
-        <v>177600</v>
+        <v>532800</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -1318,7 +1318,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="5" t="s">
         <v>18</v>
       </c>
@@ -1332,7 +1332,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1348,7 +1348,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="5" t="s">
         <v>4</v>
       </c>
@@ -1365,7 +1365,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="5" t="s">
         <v>27</v>
       </c>
@@ -1379,45 +1379,49 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
+      <c r="A33" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="9">
         <f>SUM(D6:D32)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E33" s="11">
         <f>SUM(E6:E32)</f>
-        <v>177600</v>
+        <v>532800</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
       <c r="E34" s="12">
-        <v>182850</v>
+        <v>42700</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="39"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
       <c r="E35" s="13">
         <f>E33-E34</f>
-        <v>-5250</v>
+        <v>490100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A30:A32"/>
@@ -1434,10 +1438,6 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -900,7 +900,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -937,7 +937,7 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44626</v>
+        <v>44630</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
@@ -1009,10 +1009,12 @@
       <c r="C8" s="3">
         <v>10200</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
       <c r="E8" s="2">
         <f t="shared" ref="E8:E13" si="1">D8*C8</f>
-        <v>0</v>
+        <v>102000</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1113,10 +1115,12 @@
       <c r="C15" s="3">
         <v>11650</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>10</v>
+      </c>
       <c r="E15" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>116500</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1143,10 +1147,12 @@
       <c r="C17" s="3">
         <v>12570</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <v>10</v>
+      </c>
       <c r="E17" s="2">
         <f>D17*C17</f>
-        <v>0</v>
+        <v>125700</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1294,11 +1300,11 @@
         <v>17760</v>
       </c>
       <c r="D27" s="3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="5"/>
-        <v>532800</v>
+        <v>88800</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1386,11 +1392,11 @@
       <c r="C33" s="37"/>
       <c r="D33" s="9">
         <f>SUM(D6:D32)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E33" s="11">
         <f>SUM(E6:E32)</f>
-        <v>532800</v>
+        <v>433000</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1401,7 +1407,7 @@
       <c r="C34" s="30"/>
       <c r="D34" s="31"/>
       <c r="E34" s="12">
-        <v>42700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1413,16 +1419,11 @@
       <c r="D35" s="19"/>
       <c r="E35" s="13">
         <f>E33-E34</f>
-        <v>490100</v>
+        <v>433000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A35:D35"/>
@@ -1438,6 +1439,11 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -900,7 +900,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -937,7 +937,7 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44630</v>
+        <v>44633</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
@@ -1009,12 +1009,10 @@
       <c r="C8" s="3">
         <v>10200</v>
       </c>
-      <c r="D8" s="3">
-        <v>10</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="2">
         <f t="shared" ref="E8:E13" si="1">D8*C8</f>
-        <v>102000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1115,12 +1113,10 @@
       <c r="C15" s="3">
         <v>11650</v>
       </c>
-      <c r="D15" s="3">
-        <v>10</v>
-      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="2">
         <f t="shared" si="3"/>
-        <v>116500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1147,12 +1143,10 @@
       <c r="C17" s="3">
         <v>12570</v>
       </c>
-      <c r="D17" s="3">
-        <v>10</v>
-      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="2">
         <f>D17*C17</f>
-        <v>125700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1285,10 +1279,12 @@
       <c r="C26" s="3">
         <v>17760</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3">
+        <v>15</v>
+      </c>
       <c r="E26" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>266400</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1299,12 +1295,10 @@
       <c r="C27" s="3">
         <v>17760</v>
       </c>
-      <c r="D27" s="3">
-        <v>5</v>
-      </c>
+      <c r="D27" s="3"/>
       <c r="E27" s="2">
         <f t="shared" si="5"/>
-        <v>88800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1392,11 +1386,11 @@
       <c r="C33" s="37"/>
       <c r="D33" s="9">
         <f>SUM(D6:D32)</f>
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E33" s="11">
         <f>SUM(E6:E32)</f>
-        <v>433000</v>
+        <v>266400</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1419,11 +1413,15 @@
       <c r="D35" s="19"/>
       <c r="E35" s="13">
         <f>E33-E34</f>
-        <v>433000</v>
+        <v>266400</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A35:D35"/>
@@ -1440,10 +1438,6 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -514,58 +514,58 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -900,7 +900,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -914,22 +914,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -937,20 +937,20 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44633</v>
+        <v>44634</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
       <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -970,7 +970,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -986,7 +986,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1000,7 +1000,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="30" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1016,7 +1016,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
@@ -1030,7 +1030,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="30" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1046,7 +1046,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
@@ -1060,7 +1060,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="30" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1076,7 +1076,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
@@ -1090,7 +1090,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="30" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1106,7 +1106,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
@@ -1120,7 +1120,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="30" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1136,7 +1136,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="5" t="s">
         <v>4</v>
       </c>
@@ -1150,7 +1150,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="30" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1166,7 +1166,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
@@ -1189,10 +1189,12 @@
       <c r="C20" s="3">
         <v>20640</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3">
+        <v>15</v>
+      </c>
       <c r="E20" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>309600</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1210,7 +1212,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="30" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1226,7 +1228,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="5" t="s">
         <v>4</v>
       </c>
@@ -1240,7 +1242,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1256,7 +1258,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="5" t="s">
         <v>28</v>
       </c>
@@ -1270,7 +1272,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1279,16 +1281,14 @@
       <c r="C26" s="3">
         <v>17760</v>
       </c>
-      <c r="D26" s="3">
-        <v>15</v>
-      </c>
+      <c r="D26" s="3"/>
       <c r="E26" s="2">
         <f t="shared" si="5"/>
-        <v>266400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="5" t="s">
         <v>28</v>
       </c>
@@ -1302,7 +1302,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="30" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -1318,7 +1318,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="5" t="s">
         <v>18</v>
       </c>
@@ -1332,7 +1332,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1348,7 +1348,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="5" t="s">
         <v>4</v>
       </c>
@@ -1365,7 +1365,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="5" t="s">
         <v>27</v>
       </c>
@@ -1390,35 +1390,34 @@
       </c>
       <c r="E33" s="11">
         <f>SUM(E6:E32)</f>
-        <v>266400</v>
+        <v>309600</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="29"/>
       <c r="E34" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
       <c r="E35" s="13">
         <f>E33-E34</f>
-        <v>266400</v>
+        <v>309600</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A12:A13"/>
@@ -1438,6 +1437,7 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>Total=</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>9i (4/64)</t>
-  </si>
-  <si>
-    <t>Advance</t>
   </si>
 </sst>
 </file>
@@ -205,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -464,6 +461,17 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -514,9 +522,6 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -590,6 +595,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -899,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -914,22 +922,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -937,20 +945,20 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44634</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
+        <v>44636</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -970,7 +978,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -986,7 +994,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1000,7 +1008,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1016,7 +1024,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
@@ -1030,7 +1038,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1046,7 +1054,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
@@ -1060,7 +1068,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1076,7 +1084,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
@@ -1090,7 +1098,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1106,7 +1114,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
@@ -1120,7 +1128,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1136,7 +1144,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="5" t="s">
         <v>4</v>
       </c>
@@ -1150,7 +1158,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1166,7 +1174,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
@@ -1180,7 +1188,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="38">
+      <c r="A20" s="37">
         <v>8</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1190,15 +1198,15 @@
         <v>20640</v>
       </c>
       <c r="D20" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="4"/>
-        <v>309600</v>
+        <v>206400</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="5" t="s">
         <v>12</v>
       </c>
@@ -1212,7 +1220,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1228,7 +1236,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="5" t="s">
         <v>4</v>
       </c>
@@ -1242,7 +1250,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1258,7 +1266,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="5" t="s">
         <v>28</v>
       </c>
@@ -1272,7 +1280,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1288,7 +1296,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="5" t="s">
         <v>28</v>
       </c>
@@ -1302,7 +1310,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -1318,7 +1326,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="5" t="s">
         <v>18</v>
       </c>
@@ -1332,7 +1340,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1341,84 +1349,85 @@
       <c r="C30" s="3">
         <v>31210</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3">
+        <v>3</v>
+      </c>
       <c r="E30" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>93630</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="3">
         <v>31210</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
       <c r="E31" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>31210</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="3">
         <v>31210</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
       <c r="E32" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>31210</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="37"/>
+      <c r="A33" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="9">
         <f>SUM(D6:D32)</f>
         <v>15</v>
       </c>
       <c r="E33" s="11">
         <f>SUM(E6:E32)</f>
-        <v>309600</v>
+        <v>362450</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="12">
-        <v>0</v>
-      </c>
+      <c r="A34" s="26"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="13">
         <f>E33-E34</f>
-        <v>309600</v>
+        <v>362450</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A24:A25"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A26:A27"/>
@@ -1438,6 +1447,7 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Total=</t>
   </si>
@@ -96,9 +96,6 @@
     <t>GT Master</t>
   </si>
   <si>
-    <t>Narzo50i</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 8(5G)</t>
   </si>
   <si>
@@ -112,6 +109,12 @@
   </si>
   <si>
     <t>9i (4/64)</t>
+  </si>
+  <si>
+    <t>Narzo50</t>
+  </si>
+  <si>
+    <t>Advance</t>
   </si>
 </sst>
 </file>
@@ -522,6 +525,75 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -529,75 +601,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -907,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -922,22 +925,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -945,20 +948,20 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44636</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
+        <v>44654</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -978,44 +981,48 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="26" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3">
-        <v>8410</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>8510</v>
+      </c>
+      <c r="D6" s="3">
+        <v>20</v>
+      </c>
       <c r="E6" s="2">
         <f t="shared" ref="E6:E7" si="0">D6*C6</f>
-        <v>0</v>
+        <v>170200</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3">
-        <v>8410</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>8510</v>
+      </c>
+      <c r="D7" s="3">
+        <v>20</v>
+      </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>170200</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3">
-        <v>10200</v>
+        <v>10390</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2">
@@ -1024,28 +1031,30 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3">
-        <v>10200</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>10390</v>
+      </c>
+      <c r="D9" s="3">
+        <v>50</v>
+      </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>519500</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
-        <v>25</v>
+      <c r="A10" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="3">
-        <v>10250</v>
+        <v>10440</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2">
@@ -1054,12 +1063,12 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="3">
-        <v>10250</v>
+        <v>10440</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2">
@@ -1068,7 +1077,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1084,21 +1093,23 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="3">
         <v>10510</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>30</v>
+      </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>315300</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1114,7 +1125,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
@@ -1128,67 +1139,75 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="26" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="3">
-        <v>12570</v>
-      </c>
-      <c r="D16" s="3"/>
+        <v>12660</v>
+      </c>
+      <c r="D16" s="3">
+        <v>20</v>
+      </c>
       <c r="E16" s="2">
         <f>D16*C16</f>
-        <v>0</v>
+        <v>253200</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="3">
-        <v>12570</v>
-      </c>
-      <c r="D17" s="3"/>
+        <v>12660</v>
+      </c>
+      <c r="D17" s="3">
+        <v>30</v>
+      </c>
       <c r="E17" s="2">
         <f>D17*C17</f>
-        <v>0</v>
+        <v>379800</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="3">
-        <v>14510</v>
-      </c>
-      <c r="D18" s="3"/>
+        <v>13890</v>
+      </c>
+      <c r="D18" s="3">
+        <v>40</v>
+      </c>
       <c r="E18" s="2">
         <f t="shared" ref="E18:E21" si="4">D18*C18</f>
-        <v>0</v>
+        <v>555600</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="3">
-        <v>14510</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>13890</v>
+      </c>
+      <c r="D19" s="3">
+        <v>60</v>
+      </c>
       <c r="E19" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>833400</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="37">
+      <c r="A20" s="34">
         <v>8</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1197,16 +1216,14 @@
       <c r="C20" s="3">
         <v>20640</v>
       </c>
-      <c r="D20" s="3">
-        <v>10</v>
-      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="2">
         <f t="shared" si="4"/>
-        <v>206400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="5" t="s">
         <v>12</v>
       </c>
@@ -1220,8 +1237,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
-        <v>26</v>
+      <c r="A22" s="26" t="s">
+        <v>25</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>3</v>
@@ -1229,14 +1246,16 @@
       <c r="C22" s="3">
         <v>20970</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3">
+        <v>4</v>
+      </c>
       <c r="E22" s="2">
         <f t="shared" ref="E22:E27" si="5">D22*C22</f>
-        <v>0</v>
+        <v>83880</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="5" t="s">
         <v>4</v>
       </c>
@@ -1250,8 +1269,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
-        <v>30</v>
+      <c r="A24" s="26" t="s">
+        <v>29</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>3</v>
@@ -1266,9 +1285,9 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="3">
         <v>15930</v>
@@ -1280,8 +1299,8 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
-        <v>29</v>
+      <c r="A26" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>3</v>
@@ -1296,21 +1315,23 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="3">
         <v>17760</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3">
+        <v>16</v>
+      </c>
       <c r="E27" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>284160</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -1326,7 +1347,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="5" t="s">
         <v>18</v>
       </c>
@@ -1340,7 +1361,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="26" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1350,15 +1371,15 @@
         <v>31210</v>
       </c>
       <c r="D30" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="6"/>
-        <v>93630</v>
+        <v>187260</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="5" t="s">
         <v>4</v>
       </c>
@@ -1366,69 +1387,72 @@
         <v>31210</v>
       </c>
       <c r="D31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="6"/>
-        <v>31210</v>
+        <v>62420</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="3">
         <v>31210</v>
       </c>
       <c r="D32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="6"/>
-        <v>31210</v>
+        <v>62420</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="9">
         <f>SUM(D6:D32)</f>
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="E33" s="11">
         <f>SUM(E6:E32)</f>
-        <v>362450</v>
+        <v>3877340</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="26"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="12"/>
+      <c r="A34" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="12">
+        <v>146100</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="13">
         <f>E33-E34</f>
-        <v>362450</v>
+        <v>3731240</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A30:A32"/>
@@ -1448,6 +1472,7 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>Total=</t>
   </si>
@@ -81,9 +81,6 @@
     <t>C11(4/64)</t>
   </si>
   <si>
-    <t>Need to deposit</t>
-  </si>
-  <si>
     <t>C21Y(3/32)</t>
   </si>
   <si>
@@ -115,6 +112,12 @@
   </si>
   <si>
     <t>Advance</t>
+  </si>
+  <si>
+    <t>C31(4+64)</t>
+  </si>
+  <si>
+    <t>Need to Deposit</t>
   </si>
 </sst>
 </file>
@@ -525,6 +528,24 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,12 +582,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -589,18 +604,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -908,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -925,22 +928,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -948,20 +951,20 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44654</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
+        <v>44662</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -981,8 +984,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
-        <v>22</v>
+      <c r="A6" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -990,32 +993,28 @@
       <c r="C6" s="3">
         <v>8510</v>
       </c>
-      <c r="D6" s="3">
-        <v>20</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="2">
         <f t="shared" ref="E6:E7" si="0">D6*C6</f>
-        <v>170200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3">
         <v>8510</v>
       </c>
-      <c r="D7" s="3">
-        <v>20</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>170200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1031,54 +1030,56 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3">
         <v>10390</v>
       </c>
-      <c r="D9" s="3">
-        <v>50</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>519500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
-        <v>30</v>
+      <c r="A10" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="3">
-        <v>10440</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>15319</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8</v>
+      </c>
       <c r="E10" s="2">
         <f t="shared" ref="E10:E11" si="2">D10*C10</f>
-        <v>0</v>
+        <v>122552</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C11" s="3">
-        <v>10440</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>15319</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>153190</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
-        <v>21</v>
+      <c r="A12" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>3</v>
@@ -1093,23 +1094,21 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="3">
         <v>10510</v>
       </c>
-      <c r="D13" s="3">
-        <v>30</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>315300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1125,7 +1124,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
@@ -1139,7 +1138,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1148,32 +1147,28 @@
       <c r="C16" s="3">
         <v>12660</v>
       </c>
-      <c r="D16" s="3">
-        <v>20</v>
-      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="2">
         <f>D16*C16</f>
-        <v>253200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
       <c r="B17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="3">
         <v>12660</v>
       </c>
-      <c r="D17" s="3">
-        <v>30</v>
-      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="2">
         <f>D17*C17</f>
-        <v>379800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1182,297 +1177,323 @@
       <c r="C18" s="3">
         <v>13890</v>
       </c>
-      <c r="D18" s="3">
-        <v>40</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="2">
-        <f t="shared" ref="E18:E21" si="4">D18*C18</f>
-        <v>555600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
+        <f t="shared" ref="E18:E23" si="4">D18*C18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
       <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="3">
         <v>13890</v>
       </c>
-      <c r="D19" s="3">
-        <v>60</v>
-      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="2">
         <f t="shared" si="4"/>
-        <v>833400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="34">
-        <v>8</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="38" t="s">
+        <v>31</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3">
-        <v>20640</v>
-      </c>
-      <c r="D20" s="3"/>
+        <v>11840</v>
+      </c>
+      <c r="D20" s="3">
+        <v>6</v>
+      </c>
       <c r="E20" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
+        <f t="shared" ref="E20:E21" si="5">D20*C20</f>
+        <v>71040</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="39"/>
       <c r="B21" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="3">
-        <v>20640</v>
-      </c>
-      <c r="D21" s="3"/>
+        <v>11840</v>
+      </c>
+      <c r="D21" s="3">
+        <v>6</v>
+      </c>
       <c r="E21" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
-        <v>25</v>
+        <f t="shared" si="5"/>
+        <v>71040</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="38">
+        <v>8</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="3">
-        <v>20970</v>
-      </c>
-      <c r="D22" s="3">
-        <v>4</v>
-      </c>
+        <v>20640</v>
+      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="2">
-        <f t="shared" ref="E22:E27" si="5">D22*C22</f>
-        <v>83880</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="39"/>
       <c r="B23" s="5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C23" s="3">
-        <v>20970</v>
+        <v>20640</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
-        <v>29</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="3">
-        <v>15930</v>
+        <v>20970</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
+        <f t="shared" ref="E24:E29" si="6">D24*C24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
       <c r="B25" s="5" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>15930</v>
+        <v>20970</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="3">
-        <v>17760</v>
+        <v>15930</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
       <c r="B27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="3">
+        <v>15930</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="C27" s="3">
-        <v>17760</v>
-      </c>
-      <c r="D27" s="3">
-        <v>16</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="5"/>
-        <v>284160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
-        <v>16</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="3">
-        <v>36420</v>
-      </c>
-      <c r="D28" s="3"/>
+        <v>17760</v>
+      </c>
+      <c r="D28" s="3">
+        <v>18</v>
+      </c>
       <c r="E28" s="2">
-        <f t="shared" ref="E28:E32" si="6">D28*C28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
+        <f t="shared" si="6"/>
+        <v>319680</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
       <c r="B29" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C29" s="3">
-        <v>36420</v>
+        <v>17760</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="26" t="s">
-        <v>24</v>
+      <c r="L29" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3">
+        <v>36420</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="2">
+        <f t="shared" ref="E30:E34" si="7">D30*C30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="3">
+        <v>36420</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C30" s="3">
-        <v>31210</v>
-      </c>
-      <c r="D30" s="3">
-        <v>6</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="6"/>
-        <v>187260</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="B31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="3">
-        <v>31210</v>
-      </c>
-      <c r="D31" s="3">
-        <v>2</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="6"/>
-        <v>62420</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
-      <c r="B32" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C32" s="3">
         <v>31210</v>
       </c>
-      <c r="D32" s="3">
-        <v>2</v>
-      </c>
+      <c r="D32" s="3"/>
       <c r="E32" s="2">
-        <f t="shared" si="6"/>
-        <v>62420</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="9">
-        <f>SUM(D6:D32)</f>
-        <v>300</v>
-      </c>
-      <c r="E33" s="11">
-        <f>SUM(E6:E32)</f>
-        <v>3877340</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="12">
-        <v>146100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="13">
-        <f>E33-E34</f>
-        <v>3731240</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="16"/>
+      <c r="B33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3">
+        <v>31210</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="3">
+        <v>31210</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="9">
+        <f>SUM(D6:D34)</f>
+        <v>48</v>
+      </c>
+      <c r="E35" s="11">
+        <f>SUM(E6:E34)</f>
+        <v>737502</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="12">
+        <v>281388</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="13">
+        <f>E35-E36</f>
+        <v>456114</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A37:D37"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A30:A31"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -534,6 +534,12 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -598,12 +604,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -911,589 +911,587 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M37"/>
+  <dimension ref="B1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="2:6" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="2:6" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-    </row>
-    <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+    </row>
+    <row r="4" spans="2:6" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6">
+      <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44662</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-    </row>
-    <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+        <v>44663</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
+    </row>
+    <row r="5" spans="2:6" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
+    </row>
+    <row r="6" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+    <row r="7" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D7" s="3">
         <v>8510</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2">
-        <f t="shared" ref="E6:E7" si="0">D6*C6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="5" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="2">
+        <f t="shared" ref="F7:F8" si="0">E7*D7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B8" s="15"/>
+      <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D8" s="3">
         <v>8510</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2">
+      <c r="E8" s="3"/>
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+    <row r="9" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D9" s="3">
         <v>10390</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2">
-        <f t="shared" ref="E8:E13" si="1">D8*C8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="5" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="2">
+        <f t="shared" ref="F9:F14" si="1">E9*D9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="15"/>
+      <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D10" s="3">
         <v>10390</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2">
+      <c r="E10" s="3"/>
+      <c r="F10" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+    <row r="11" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D11" s="3">
         <v>15319</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" ref="F11:F12" si="2">E11*D11</f>
+        <v>153190</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B12" s="15"/>
+      <c r="C12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3">
+        <v>15319</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10510</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B14" s="15"/>
+      <c r="C14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3">
+        <v>10510</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3">
+        <v>11650</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2">
+        <f t="shared" ref="F15:F16" si="3">E15*D15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B16" s="15"/>
+      <c r="C16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3">
+        <v>11650</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3">
+        <v>12660</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2">
+        <f>E17*D17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B18" s="15"/>
+      <c r="C18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3">
+        <v>12660</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2">
+        <f>E18*D18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3">
+        <v>13890</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2">
+        <f t="shared" ref="F19:F24" si="4">E19*D19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B20" s="15"/>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3">
+        <v>13890</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3">
+        <v>11840</v>
+      </c>
+      <c r="E21" s="3">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" ref="F21:F22" si="5">E21*D21</f>
+        <v>165760</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B22" s="17"/>
+      <c r="C22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="3">
+        <v>11840</v>
+      </c>
+      <c r="E22" s="3">
+        <v>14</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="5"/>
+        <v>165760</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B23" s="16">
         <v>8</v>
       </c>
-      <c r="E10" s="2">
-        <f t="shared" ref="E10:E11" si="2">D10*C10</f>
-        <v>122552</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="5" t="s">
+      <c r="C23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3">
+        <v>20640</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B24" s="17"/>
+      <c r="C24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="3">
+        <v>20640</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B25" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>20970</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2">
+        <f t="shared" ref="F25:F30" si="6">E25*D25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B26" s="15"/>
+      <c r="C26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="3">
-        <v>15319</v>
-      </c>
-      <c r="D11" s="3">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="2"/>
-        <v>153190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="D26" s="3">
+        <v>20970</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B27" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="3">
-        <v>10510</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="5" t="s">
+      <c r="D27" s="3">
+        <v>15930</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B28" s="15"/>
+      <c r="C28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="3">
+        <v>15930</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B29" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="3">
+        <v>17760</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B30" s="15"/>
+      <c r="C30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="3">
+        <v>17760</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B31" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="3">
+        <v>36420</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="2">
+        <f t="shared" ref="F31:F35" si="7">E31*D31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B32" s="15"/>
+      <c r="C32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="3">
+        <v>36420</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B33" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="3">
+        <v>31210</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B34" s="18"/>
+      <c r="C34" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="3">
-        <v>10510</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3">
-        <v>11650</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2">
-        <f t="shared" ref="E14:E15" si="3">D14*C14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="3">
-        <v>11650</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3">
-        <v>12660</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="2">
-        <f>D16*C16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="3">
-        <v>12660</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="2">
-        <f>D17*C17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="3">
-        <v>13890</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="2">
-        <f t="shared" ref="E18:E23" si="4">D18*C18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="3">
-        <v>13890</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="3">
-        <v>11840</v>
-      </c>
-      <c r="D20" s="3">
-        <v>6</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" ref="E20:E21" si="5">D20*C20</f>
-        <v>71040</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="3">
-        <v>11840</v>
-      </c>
-      <c r="D21" s="3">
-        <v>6</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="5"/>
-        <v>71040</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="38">
-        <v>8</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="3">
-        <v>20640</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="3">
-        <v>20640</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="3">
-        <v>20970</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="2">
-        <f t="shared" ref="E24:E29" si="6">D24*C24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3">
-        <v>20970</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="3">
-        <v>15930</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="3">
-        <v>15930</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="3">
-        <v>17760</v>
-      </c>
-      <c r="D28" s="3">
-        <v>18</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="6"/>
-        <v>319680</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="3">
-        <v>17760</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="1" t="s">
+      <c r="D34" s="3">
+        <v>31210</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="3">
-        <v>36420</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="2">
-        <f t="shared" ref="E30:E34" si="7">D30*C30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="3">
-        <v>36420</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="2">
+    <row r="35" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B35" s="15"/>
+      <c r="C35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="3">
+        <v>31210</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="3">
-        <v>31210</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="3">
-        <v>31210</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="3">
-        <v>31210</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="9">
-        <f>SUM(D6:D34)</f>
-        <v>48</v>
-      </c>
-      <c r="E35" s="11">
-        <f>SUM(E6:E34)</f>
-        <v>737502</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
+    <row r="36" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B36" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="38"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="9">
+        <f>SUM(E7:E35)</f>
+        <v>38</v>
+      </c>
+      <c r="F36" s="11">
+        <f>SUM(F7:F35)</f>
+        <v>484710</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B37" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="12">
-        <v>281388</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="12">
+        <v>43886</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="13">
-        <f>E35-E36</f>
-        <v>456114</v>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="13">
+        <f>F36-F37</f>
+        <v>440824</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -534,76 +534,76 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -913,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -930,22 +930,22 @@
   <sheetData>
     <row r="1" spans="2:6" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="2:6" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="2:6" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
@@ -953,20 +953,20 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44663</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
+        <v>44664</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="2:6" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
@@ -1055,12 +1055,10 @@
       <c r="D11" s="3">
         <v>15319</v>
       </c>
-      <c r="E11" s="3">
-        <v>10</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="2">
         <f t="shared" ref="F11:F12" si="2">E11*D11</f>
-        <v>153190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -1198,7 +1196,7 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="38" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1208,31 +1206,29 @@
         <v>11840</v>
       </c>
       <c r="E21" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" ref="F21:F22" si="5">E21*D21</f>
-        <v>165760</v>
+        <v>118400</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B22" s="17"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="3">
         <v>11840</v>
       </c>
-      <c r="E22" s="3">
-        <v>14</v>
-      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="2">
         <f t="shared" si="5"/>
-        <v>165760</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B23" s="16">
+      <c r="B23" s="38">
         <v>8</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1248,7 +1244,7 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B24" s="17"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1331,10 +1327,12 @@
       <c r="D29" s="3">
         <v>17760</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3">
+        <v>30</v>
+      </c>
       <c r="F29" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>532800</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1401,7 +1399,7 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B34" s="18"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="5" t="s">
         <v>4</v>
       </c>
@@ -1432,45 +1430,50 @@
       </c>
     </row>
     <row r="36" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B36" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="39"/>
+      <c r="B36" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="37"/>
       <c r="E36" s="9">
         <f>SUM(E7:E35)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F36" s="11">
         <f>SUM(F7:F35)</f>
-        <v>484710</v>
+        <v>651200</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="12">
-        <v>43886</v>
+        <v>22365</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="21"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="19"/>
       <c r="F38" s="13">
         <f>F36-F37</f>
-        <v>440824</v>
+        <v>628835</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="B38:E38"/>
@@ -1487,11 +1490,6 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -534,6 +534,12 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -598,12 +604,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -913,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -930,22 +930,22 @@
   <sheetData>
     <row r="1" spans="2:6" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="2:6" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="2:6" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
@@ -953,20 +953,20 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44664</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
+        <v>44668</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="2:6" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
@@ -995,10 +995,12 @@
       <c r="D7" s="3">
         <v>8510</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>30</v>
+      </c>
       <c r="F7" s="2">
         <f t="shared" ref="F7:F8" si="0">E7*D7</f>
-        <v>0</v>
+        <v>255300</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -1009,10 +1011,12 @@
       <c r="D8" s="3">
         <v>8510</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3">
+        <v>30</v>
+      </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>255300</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -1025,10 +1029,12 @@
       <c r="D9" s="3">
         <v>10390</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <v>20</v>
+      </c>
       <c r="F9" s="2">
         <f t="shared" ref="F9:F14" si="1">E9*D9</f>
-        <v>0</v>
+        <v>207800</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -1039,10 +1045,12 @@
       <c r="D10" s="3">
         <v>10390</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>207800</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -1175,10 +1183,12 @@
       <c r="D19" s="3">
         <v>13890</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <v>20</v>
+      </c>
       <c r="F19" s="2">
         <f t="shared" ref="F19:F24" si="4">E19*D19</f>
-        <v>0</v>
+        <v>277800</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1189,14 +1199,16 @@
       <c r="D20" s="3">
         <v>13890</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3">
+        <v>30</v>
+      </c>
       <c r="F20" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>416700</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1205,16 +1217,14 @@
       <c r="D21" s="3">
         <v>11840</v>
       </c>
-      <c r="E21" s="3">
-        <v>10</v>
-      </c>
+      <c r="E21" s="3"/>
       <c r="F21" s="2">
         <f t="shared" ref="F21:F22" si="5">E21*D21</f>
-        <v>118400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B22" s="39"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1228,7 +1238,7 @@
       </c>
     </row>
     <row r="23" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B23" s="38">
+      <c r="B23" s="16">
         <v>8</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1244,7 +1254,7 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B24" s="39"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1327,12 +1337,10 @@
       <c r="D29" s="3">
         <v>17760</v>
       </c>
-      <c r="E29" s="3">
-        <v>30</v>
-      </c>
+      <c r="E29" s="3"/>
       <c r="F29" s="2">
         <f t="shared" si="6"/>
-        <v>532800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1399,7 +1407,7 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B34" s="16"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="5" t="s">
         <v>4</v>
       </c>
@@ -1430,50 +1438,45 @@
       </c>
     </row>
     <row r="36" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B36" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="37"/>
+      <c r="B36" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="38"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="9">
         <f>SUM(E7:E35)</f>
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="F36" s="11">
         <f>SUM(F7:F35)</f>
-        <v>651200</v>
+        <v>1620700</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="31"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33"/>
       <c r="F37" s="12">
-        <v>22365</v>
+        <v>403665</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21"/>
       <c r="F38" s="13">
         <f>F36-F37</f>
-        <v>628835</v>
+        <v>1217035</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="B38:E38"/>
@@ -1490,6 +1493,11 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -534,76 +534,76 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -914,7 +914,7 @@
   <dimension ref="B1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="B2" sqref="B2:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -930,22 +930,22 @@
   <sheetData>
     <row r="1" spans="2:6" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="2:6" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="2:6" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
@@ -953,20 +953,20 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44668</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
+        <v>44671</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="2:6" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
@@ -996,11 +996,11 @@
         <v>8510</v>
       </c>
       <c r="E7" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" ref="F7:F8" si="0">E7*D7</f>
-        <v>255300</v>
+        <v>170200</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -1012,11 +1012,11 @@
         <v>8510</v>
       </c>
       <c r="E8" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>255300</v>
+        <v>170200</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -1107,10 +1107,12 @@
       <c r="D14" s="3">
         <v>10510</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>20</v>
+      </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>210200</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -1153,10 +1155,12 @@
       <c r="D17" s="3">
         <v>12660</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3">
+        <v>20</v>
+      </c>
       <c r="F17" s="2">
         <f>E17*D17</f>
-        <v>0</v>
+        <v>253200</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1167,10 +1171,12 @@
       <c r="D18" s="3">
         <v>12660</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <v>30</v>
+      </c>
       <c r="F18" s="2">
         <f>E18*D18</f>
-        <v>0</v>
+        <v>379800</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1184,11 +1190,11 @@
         <v>13890</v>
       </c>
       <c r="E19" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" ref="F19:F24" si="4">E19*D19</f>
-        <v>277800</v>
+        <v>694500</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1200,15 +1206,15 @@
         <v>13890</v>
       </c>
       <c r="E20" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="4"/>
-        <v>416700</v>
+        <v>694500</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="38" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1224,7 +1230,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B22" s="17"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1238,7 +1244,7 @@
       </c>
     </row>
     <row r="23" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B23" s="16">
+      <c r="B23" s="38">
         <v>8</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1254,7 +1260,7 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B24" s="17"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1400,24 +1406,28 @@
       <c r="D33" s="3">
         <v>31210</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
       <c r="F33" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>62420</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B34" s="18"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="3">
         <v>31210</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="3">
+        <v>2</v>
+      </c>
       <c r="F34" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>62420</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>22</v>
@@ -1438,45 +1448,48 @@
       </c>
     </row>
     <row r="36" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B36" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="39"/>
+      <c r="B36" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="37"/>
       <c r="E36" s="9">
         <f>SUM(E7:E35)</f>
-        <v>150</v>
+        <v>254</v>
       </c>
       <c r="F36" s="11">
         <f>SUM(F7:F35)</f>
-        <v>1620700</v>
+        <v>3113040</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="12">
-        <v>403665</v>
-      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="21"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="19"/>
       <c r="F38" s="13">
         <f>F36-F37</f>
-        <v>1217035</v>
+        <v>3113040</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="B38:E38"/>
@@ -1493,11 +1506,6 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -534,6 +534,12 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -598,12 +604,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -914,7 +914,7 @@
   <dimension ref="B1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F38"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -930,22 +930,22 @@
   <sheetData>
     <row r="1" spans="2:6" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="2:6" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="2:6" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
@@ -953,20 +953,20 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44671</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
+        <v>44672</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="2:6" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
@@ -995,12 +995,10 @@
       <c r="D7" s="3">
         <v>8510</v>
       </c>
-      <c r="E7" s="3">
-        <v>20</v>
-      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="2">
         <f t="shared" ref="F7:F8" si="0">E7*D7</f>
-        <v>170200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -1011,12 +1009,10 @@
       <c r="D8" s="3">
         <v>8510</v>
       </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>170200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -1029,12 +1025,10 @@
       <c r="D9" s="3">
         <v>10390</v>
       </c>
-      <c r="E9" s="3">
-        <v>20</v>
-      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="2">
         <f t="shared" ref="F9:F14" si="1">E9*D9</f>
-        <v>207800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -1045,12 +1039,10 @@
       <c r="D10" s="3">
         <v>10390</v>
       </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
-        <v>207800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -1107,12 +1099,10 @@
       <c r="D14" s="3">
         <v>10510</v>
       </c>
-      <c r="E14" s="3">
-        <v>20</v>
-      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>210200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -1155,12 +1145,10 @@
       <c r="D17" s="3">
         <v>12660</v>
       </c>
-      <c r="E17" s="3">
-        <v>20</v>
-      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="2">
         <f>E17*D17</f>
-        <v>253200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1171,12 +1159,10 @@
       <c r="D18" s="3">
         <v>12660</v>
       </c>
-      <c r="E18" s="3">
-        <v>30</v>
-      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="2">
         <f>E18*D18</f>
-        <v>379800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1189,12 +1175,10 @@
       <c r="D19" s="3">
         <v>13890</v>
       </c>
-      <c r="E19" s="3">
-        <v>50</v>
-      </c>
+      <c r="E19" s="3"/>
       <c r="F19" s="2">
         <f t="shared" ref="F19:F24" si="4">E19*D19</f>
-        <v>694500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1205,16 +1189,14 @@
       <c r="D20" s="3">
         <v>13890</v>
       </c>
-      <c r="E20" s="3">
-        <v>50</v>
-      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="2">
         <f t="shared" si="4"/>
-        <v>694500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1230,21 +1212,23 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B22" s="39"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="3">
         <v>11840</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3">
+        <v>65</v>
+      </c>
       <c r="F22" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>769600</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B23" s="38">
+      <c r="B23" s="16">
         <v>8</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1253,14 +1237,16 @@
       <c r="D23" s="3">
         <v>20640</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3">
+        <v>15</v>
+      </c>
       <c r="F23" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>309600</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B24" s="39"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1406,28 +1392,24 @@
       <c r="D33" s="3">
         <v>31210</v>
       </c>
-      <c r="E33" s="3">
-        <v>2</v>
-      </c>
+      <c r="E33" s="3"/>
       <c r="F33" s="2">
         <f t="shared" si="7"/>
-        <v>62420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B34" s="16"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="3">
         <v>31210</v>
       </c>
-      <c r="E34" s="3">
-        <v>2</v>
-      </c>
+      <c r="E34" s="3"/>
       <c r="F34" s="2">
         <f t="shared" si="7"/>
-        <v>62420</v>
+        <v>0</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>22</v>
@@ -1448,48 +1430,45 @@
       </c>
     </row>
     <row r="36" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B36" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="37"/>
+      <c r="B36" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="38"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="9">
         <f>SUM(E7:E35)</f>
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="F36" s="11">
         <f>SUM(F7:F35)</f>
-        <v>3113040</v>
+        <v>1079200</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="12"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="12">
+        <v>291200</v>
+      </c>
     </row>
     <row r="38" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21"/>
       <c r="F38" s="13">
         <f>F36-F37</f>
-        <v>3113040</v>
+        <v>788000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="B38:E38"/>
@@ -1506,6 +1485,11 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -534,76 +534,76 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -913,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -930,22 +930,22 @@
   <sheetData>
     <row r="1" spans="2:6" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="2:6" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="2:6" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
@@ -953,20 +953,20 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44672</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
+        <v>44675</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="2:6" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
@@ -1196,7 +1196,7 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="38" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1205,30 +1205,30 @@
       <c r="D21" s="3">
         <v>11840</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3">
+        <v>20</v>
+      </c>
       <c r="F21" s="2">
         <f t="shared" ref="F21:F22" si="5">E21*D21</f>
-        <v>0</v>
+        <v>236800</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B22" s="17"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="3">
         <v>11840</v>
       </c>
-      <c r="E22" s="3">
-        <v>65</v>
-      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="2">
         <f t="shared" si="5"/>
-        <v>769600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B23" s="16">
+      <c r="B23" s="38">
         <v>8</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1238,25 +1238,27 @@
         <v>20640</v>
       </c>
       <c r="E23" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="4"/>
-        <v>309600</v>
+        <v>412800</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B24" s="17"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="3">
         <v>20640</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3">
+        <v>10</v>
+      </c>
       <c r="F24" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>206400</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1399,7 +1401,7 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B34" s="18"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="5" t="s">
         <v>4</v>
       </c>
@@ -1430,45 +1432,50 @@
       </c>
     </row>
     <row r="36" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B36" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="39"/>
+      <c r="B36" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="37"/>
       <c r="E36" s="9">
         <f>SUM(E7:E35)</f>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F36" s="11">
         <f>SUM(F7:F35)</f>
-        <v>1079200</v>
+        <v>856000</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="12">
-        <v>291200</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="21"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="19"/>
       <c r="F38" s="13">
         <f>F36-F37</f>
-        <v>788000</v>
+        <v>837000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="B38:E38"/>
@@ -1485,11 +1492,6 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -534,6 +534,12 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -598,12 +604,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -913,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -930,22 +930,22 @@
   <sheetData>
     <row r="1" spans="2:6" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="2:6" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="2:6" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
@@ -953,20 +953,20 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44675</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
+        <v>44676</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="2:6" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
@@ -1009,10 +1009,12 @@
       <c r="D8" s="3">
         <v>8510</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3">
+        <v>10</v>
+      </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85100</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -1099,10 +1101,12 @@
       <c r="D14" s="3">
         <v>10510</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>15</v>
+      </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>157650</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -1129,10 +1133,12 @@
       <c r="D16" s="3">
         <v>11650</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <v>50</v>
+      </c>
       <c r="F16" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>582500</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1196,7 +1202,7 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1205,16 +1211,14 @@
       <c r="D21" s="3">
         <v>11840</v>
       </c>
-      <c r="E21" s="3">
-        <v>20</v>
-      </c>
+      <c r="E21" s="3"/>
       <c r="F21" s="2">
         <f t="shared" ref="F21:F22" si="5">E21*D21</f>
-        <v>236800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B22" s="39"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1228,7 +1232,7 @@
       </c>
     </row>
     <row r="23" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B23" s="38">
+      <c r="B23" s="16">
         <v>8</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1237,28 +1241,24 @@
       <c r="D23" s="3">
         <v>20640</v>
       </c>
-      <c r="E23" s="3">
-        <v>20</v>
-      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="2">
         <f t="shared" si="4"/>
-        <v>412800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B24" s="39"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="3">
         <v>20640</v>
       </c>
-      <c r="E24" s="3">
-        <v>10</v>
-      </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="2">
         <f t="shared" si="4"/>
-        <v>206400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1401,7 +1401,7 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B34" s="16"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="5" t="s">
         <v>4</v>
       </c>
@@ -1432,50 +1432,43 @@
       </c>
     </row>
     <row r="36" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B36" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="37"/>
+      <c r="B36" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="38"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="9">
         <f>SUM(E7:E35)</f>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F36" s="11">
         <f>SUM(F7:F35)</f>
-        <v>856000</v>
+        <v>825250</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="12">
-        <v>19000</v>
-      </c>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21"/>
       <c r="F38" s="13">
         <f>F36-F37</f>
-        <v>837000</v>
+        <v>825250</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="B38:E38"/>
@@ -1492,6 +1485,11 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Daily " sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>Total=</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>Narzo50</t>
-  </si>
-  <si>
-    <t>Advance</t>
   </si>
   <si>
     <t>C31(4+64)</t>
@@ -914,12 +911,12 @@
   <dimension ref="B1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
@@ -953,7 +950,7 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44676</v>
+        <v>44679</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="35"/>
@@ -1009,12 +1006,10 @@
       <c r="D8" s="3">
         <v>8510</v>
       </c>
-      <c r="E8" s="3">
-        <v>10</v>
-      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>85100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -1027,10 +1022,12 @@
       <c r="D9" s="3">
         <v>10390</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <v>30</v>
+      </c>
       <c r="F9" s="2">
         <f t="shared" ref="F9:F14" si="1">E9*D9</f>
-        <v>0</v>
+        <v>311700</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -1071,10 +1068,12 @@
       <c r="D12" s="3">
         <v>15319</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
       <c r="F12" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>153190</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -1101,12 +1100,10 @@
       <c r="D14" s="3">
         <v>10510</v>
       </c>
-      <c r="E14" s="3">
-        <v>15</v>
-      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>157650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -1134,11 +1131,11 @@
         <v>11650</v>
       </c>
       <c r="E16" s="3">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="3"/>
-        <v>582500</v>
+        <v>815500</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1203,7 +1200,7 @@
     </row>
     <row r="21" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B21" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>18</v>
@@ -1211,10 +1208,12 @@
       <c r="D21" s="3">
         <v>11840</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3">
+        <v>50</v>
+      </c>
       <c r="F21" s="2">
         <f t="shared" ref="F21:F22" si="5">E21*D21</f>
-        <v>0</v>
+        <v>592000</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1241,10 +1240,12 @@
       <c r="D23" s="3">
         <v>20640</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3">
+        <v>10</v>
+      </c>
       <c r="F23" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>206400</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1255,10 +1256,12 @@
       <c r="D24" s="3">
         <v>20640</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3">
+        <v>15</v>
+      </c>
       <c r="F24" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>309600</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
@@ -1345,10 +1348,12 @@
       <c r="D30" s="3">
         <v>17760</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3">
+        <v>10</v>
+      </c>
       <c r="F30" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>177600</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>22</v>
@@ -1394,10 +1399,12 @@
       <c r="D33" s="3">
         <v>31210</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
       <c r="F33" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>62420</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
@@ -1408,10 +1415,12 @@
       <c r="D34" s="3">
         <v>31210</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="3">
+        <v>2</v>
+      </c>
       <c r="F34" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>62420</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>22</v>
@@ -1425,10 +1434,12 @@
       <c r="D35" s="3">
         <v>31210</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
       <c r="F35" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>31210</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
@@ -1439,17 +1450,15 @@
       <c r="D36" s="39"/>
       <c r="E36" s="9">
         <f>SUM(E7:E35)</f>
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="F36" s="11">
         <f>SUM(F7:F35)</f>
-        <v>825250</v>
+        <v>2722040</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B37" s="31" t="s">
-        <v>30</v>
-      </c>
+      <c r="B37" s="31"/>
       <c r="C37" s="32"/>
       <c r="D37" s="32"/>
       <c r="E37" s="33"/>
@@ -1457,14 +1466,14 @@
     </row>
     <row r="38" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="E38" s="21"/>
       <c r="F38" s="13">
         <f>F36-F37</f>
-        <v>825250</v>
+        <v>2722040</v>
       </c>
     </row>
   </sheetData>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -205,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -475,6 +475,15 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -482,7 +491,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -531,76 +540,85 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -908,43 +926,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N38"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="V37" sqref="V37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="6" width="17.6640625" style="1" customWidth="1"/>
+    <col min="7" max="14" width="9.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="22" t="s">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+    </row>
+    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="40"/>
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-    </row>
-    <row r="3" spans="2:6" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="25" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="40"/>
+      <c r="B3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" spans="2:6" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="40"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
@@ -952,20 +986,22 @@
         <f ca="1">TODAY()</f>
         <v>44679</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
-    </row>
-    <row r="5" spans="2:6" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="28" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="40"/>
+      <c r="B5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-    </row>
-    <row r="6" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="40"/>
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
@@ -982,7 +1018,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="40"/>
       <c r="B7" s="14" t="s">
         <v>21</v>
       </c>
@@ -998,7 +1035,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="40"/>
       <c r="B8" s="15"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
@@ -1006,13 +1044,16 @@
       <c r="D8" s="3">
         <v>8510</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3">
+        <v>10</v>
+      </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>85100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="40"/>
       <c r="B9" s="14" t="s">
         <v>19</v>
       </c>
@@ -1023,14 +1064,15 @@
         <v>10390</v>
       </c>
       <c r="E9" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" ref="F9:F14" si="1">E9*D9</f>
-        <v>311700</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>207800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="40"/>
       <c r="B10" s="15"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
@@ -1044,7 +1086,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="40"/>
       <c r="B11" s="14" t="s">
         <v>29</v>
       </c>
@@ -1060,7 +1103,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="40"/>
       <c r="B12" s="15"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
@@ -1068,15 +1112,14 @@
       <c r="D12" s="3">
         <v>15319</v>
       </c>
-      <c r="E12" s="3">
-        <v>10</v>
-      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="2">
         <f t="shared" si="2"/>
-        <v>153190</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="40"/>
       <c r="B13" s="14" t="s">
         <v>20</v>
       </c>
@@ -1092,7 +1135,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="40"/>
       <c r="B14" s="15"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
@@ -1100,13 +1144,16 @@
       <c r="D14" s="3">
         <v>10510</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>10</v>
+      </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>105100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="40"/>
       <c r="B15" s="14" t="s">
         <v>15</v>
       </c>
@@ -1122,7 +1169,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="40"/>
       <c r="B16" s="15"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
@@ -1131,14 +1179,15 @@
         <v>11650</v>
       </c>
       <c r="E16" s="3">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="3"/>
-        <v>815500</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>407750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="40"/>
       <c r="B17" s="14" t="s">
         <v>17</v>
       </c>
@@ -1154,7 +1203,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="40"/>
       <c r="B18" s="15"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
@@ -1162,13 +1212,16 @@
       <c r="D18" s="3">
         <v>12660</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <v>15</v>
+      </c>
       <c r="F18" s="2">
         <f>E18*D18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>189900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="40"/>
       <c r="B19" s="14" t="s">
         <v>14</v>
       </c>
@@ -1184,7 +1237,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="40"/>
       <c r="B20" s="15"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
@@ -1198,8 +1252,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B21" s="16" t="s">
+    <row r="21" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="40"/>
+      <c r="B21" s="38" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1209,29 +1264,33 @@
         <v>11840</v>
       </c>
       <c r="E21" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" ref="F21:F22" si="5">E21*D21</f>
-        <v>592000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B22" s="17"/>
+        <v>710400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="40"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="3">
         <v>11840</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3">
+        <v>60</v>
+      </c>
       <c r="F22" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B23" s="16">
+        <v>710400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="40"/>
+      <c r="B23" s="38">
         <v>8</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1248,8 +1307,9 @@
         <v>206400</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B24" s="17"/>
+    <row r="24" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="40"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1257,14 +1317,15 @@
         <v>20640</v>
       </c>
       <c r="E24" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="4"/>
-        <v>309600</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>206400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="40"/>
       <c r="B25" s="14" t="s">
         <v>24</v>
       </c>
@@ -1280,7 +1341,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="40"/>
       <c r="B26" s="15"/>
       <c r="C26" s="5" t="s">
         <v>4</v>
@@ -1294,7 +1356,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="40"/>
       <c r="B27" s="14" t="s">
         <v>28</v>
       </c>
@@ -1310,7 +1373,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="40"/>
       <c r="B28" s="15"/>
       <c r="C28" s="5" t="s">
         <v>26</v>
@@ -1324,7 +1388,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="40"/>
       <c r="B29" s="14" t="s">
         <v>27</v>
       </c>
@@ -1340,7 +1405,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="40"/>
       <c r="B30" s="15"/>
       <c r="C30" s="5" t="s">
         <v>26</v>
@@ -1348,18 +1414,17 @@
       <c r="D30" s="3">
         <v>17760</v>
       </c>
-      <c r="E30" s="3">
-        <v>10</v>
-      </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="2">
         <f t="shared" si="6"/>
-        <v>177600</v>
+        <v>0</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="40"/>
       <c r="B31" s="14" t="s">
         <v>16</v>
       </c>
@@ -1375,7 +1440,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="40"/>
       <c r="B32" s="15"/>
       <c r="C32" s="5" t="s">
         <v>18</v>
@@ -1389,7 +1455,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="40"/>
       <c r="B33" s="14" t="s">
         <v>23</v>
       </c>
@@ -1399,34 +1466,32 @@
       <c r="D33" s="3">
         <v>31210</v>
       </c>
-      <c r="E33" s="3">
-        <v>2</v>
-      </c>
+      <c r="E33" s="3"/>
       <c r="F33" s="2">
         <f t="shared" si="7"/>
-        <v>62420</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B34" s="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="40"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="3">
         <v>31210</v>
       </c>
-      <c r="E34" s="3">
-        <v>2</v>
-      </c>
+      <c r="E34" s="3"/>
       <c r="F34" s="2">
         <f t="shared" si="7"/>
-        <v>62420</v>
+        <v>0</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="40"/>
       <c r="B35" s="15"/>
       <c r="C35" s="5" t="s">
         <v>25</v>
@@ -1434,50 +1499,117 @@
       <c r="D35" s="3">
         <v>31210</v>
       </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
+      <c r="E35" s="3"/>
       <c r="F35" s="2">
         <f t="shared" si="7"/>
-        <v>31210</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B36" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="40"/>
+      <c r="B36" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="37"/>
       <c r="E36" s="9">
         <f>SUM(E7:E35)</f>
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="F36" s="11">
         <f>SUM(F7:F35)</f>
-        <v>2722040</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="19" t="s">
+        <v>2829250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="40"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="12">
+        <v>20795</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="40"/>
+      <c r="B38" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="21"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="19"/>
       <c r="F38" s="13">
         <f>F36-F37</f>
-        <v>2722040</v>
-      </c>
+        <v>2808455</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="41"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="41"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="41"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="41"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="41"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="41"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="41"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="41"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="41"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="41"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="41"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="41"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="41"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="41"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="41"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="41"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="41"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="41"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A1:A38"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="B38:E38"/>
@@ -1494,11 +1626,6 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
